--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224787.820244531</v>
+        <v>1220448.808177791</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22012922.25143361</v>
+        <v>22012922.2514336</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7098937.042053152</v>
+        <v>7098937.042053147</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5831404.554401614</v>
+        <v>5831404.554401612</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>90.66791806081508</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>261.0983199661267</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8.619398793447957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>88.49284952069371</v>
       </c>
       <c r="T11" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1466,7 +1466,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H12" t="n">
-        <v>59.73653548534392</v>
+        <v>59.73653548534411</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H13" t="n">
-        <v>87.25845899902352</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>168.9411860548871</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U13" t="n">
         <v>279.9213814272745</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>178.8641777751603</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>5.062502398506993</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.49284952069371</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>49.68187627073631</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398086</v>
       </c>
     </row>
     <row r="16">
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -1779,10 +1779,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.1594986563936</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I16" t="n">
         <v>88.28603573286844</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.3992559982626</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>148.2966256575447</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>160.1881390759072</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>88.49284952069371</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>284.8723179329201</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,22 +2004,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>117.1500898797128</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H19" t="n">
-        <v>140.1594986563936</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I19" t="n">
         <v>88.28603573286844</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>11.81125528819688</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>331.2245765939267</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.619398793447957</v>
+        <v>8.619398793447942</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>88.4928495206937</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>233.6558318098313</v>
       </c>
     </row>
     <row r="21">
@@ -2213,7 +2213,7 @@
         <v>87.09445372222319</v>
       </c>
       <c r="T21" t="n">
-        <v>153.4484244137339</v>
+        <v>153.4484244137338</v>
       </c>
       <c r="U21" t="n">
         <v>195.3071174306206</v>
@@ -2241,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22.94363581366949</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>62.67299492410758</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I22" t="n">
-        <v>88.28603573286844</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>44.20525872441497</v>
       </c>
       <c r="S22" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>403.2252637943544</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>127.1373067952184</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8.619398793447942</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.72024146970254</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H25" t="n">
-        <v>140.1594986563936</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>12.17717312021134</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.9411860548871</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>179.4875482371199</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H26" t="n">
-        <v>287.3796452813201</v>
+        <v>210.2302267949338</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.619398793447942</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.49284952069371</v>
+        <v>88.4928495206937</v>
       </c>
       <c r="T26" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2730,10 +2730,10 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H28" t="n">
-        <v>140.1594986563936</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I28" t="n">
-        <v>88.28603573286844</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>206.7250388878275</v>
       </c>
       <c r="U28" t="n">
-        <v>148.7245960572558</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>389.9591336486649</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>193.3344843407572</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>287.3796452813201</v>
       </c>
       <c r="I29" t="n">
-        <v>8.619398793447957</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.49284952069371</v>
+        <v>88.4928495206937</v>
       </c>
       <c r="T29" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.3303768639121</v>
@@ -2854,13 +2854,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>22.25790485374828</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>137.5416787705933</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H31" t="n">
-        <v>140.1594986563936</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>88.28603573286844</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U31" t="n">
         <v>279.9213814272745</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>67.72202015341661</v>
       </c>
       <c r="G32" t="n">
         <v>402.6471267764352</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>88.4928495206937</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>72.51165915507033</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3201,13 +3201,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6835037092309</v>
+        <v>96.95782798687584</v>
       </c>
       <c r="H34" t="n">
-        <v>140.1594986563936</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I34" t="n">
-        <v>88.28603573286844</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.3344298878872</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T34" t="n">
         <v>233.3317950548276</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3271,22 +3271,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>325.6205224219345</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H35" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.619398793447942</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>44.94948954500863</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -3441,10 +3441,10 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H37" t="n">
-        <v>140.1594986563936</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I37" t="n">
-        <v>88.28603573286844</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.9411860548871</v>
+        <v>120.6179153738139</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9213814272745</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>139.9879845793021</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>321.6620739510054</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.619398793447942</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>88.4928495206937</v>
       </c>
       <c r="T38" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>256.0012340801146</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222342</v>
       </c>
       <c r="T39" t="n">
-        <v>153.4484244137338</v>
+        <v>153.4484244137339</v>
       </c>
       <c r="U39" t="n">
         <v>195.3071174306206</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>95.5943688995708</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.1594986563936</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>88.28603573286844</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>233.3317950548276</v>
@@ -3720,16 +3720,16 @@
         <v>279.9213814272745</v>
       </c>
       <c r="V40" t="n">
-        <v>122.7692708222119</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>344.2541101636457</v>
+        <v>34.76903604920478</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.619398793447942</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3878,7 +3878,7 @@
         <v>195.3071174306206</v>
       </c>
       <c r="V42" t="n">
-        <v>211.574411736897</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
         <v>211.1008365810345</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>17.26729252592605</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>90.66860430780325</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H43" t="n">
-        <v>140.1594986563936</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9213814272745</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>335.3024220543543</v>
       </c>
       <c r="D44" t="n">
-        <v>60.59148498424859</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.619398793447942</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.8533946561529</v>
+        <v>104.8533946561527</v>
       </c>
       <c r="H45" t="n">
         <v>59.73653548534392</v>
@@ -4112,7 +4112,7 @@
         <v>153.4484244137338</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3071174306206</v>
+        <v>195.3071174306208</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4137,22 +4137,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>100.2933039042403</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.6835037092309</v>
       </c>
       <c r="H46" t="n">
-        <v>140.1594986563936</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>233.3317950548276</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>4.730034539644604</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>542.3170314001032</v>
+        <v>1129.889685415452</v>
       </c>
       <c r="C11" t="n">
-        <v>132.1924407133733</v>
+        <v>719.7650947287217</v>
       </c>
       <c r="D11" t="n">
-        <v>132.1924407133733</v>
+        <v>719.7650947287217</v>
       </c>
       <c r="E11" t="n">
-        <v>132.1924407133733</v>
+        <v>719.7650947287217</v>
       </c>
       <c r="F11" t="n">
-        <v>40.60868509638841</v>
+        <v>719.7650947287217</v>
       </c>
       <c r="G11" t="n">
-        <v>40.60868509638841</v>
+        <v>313.050825257575</v>
       </c>
       <c r="H11" t="n">
-        <v>40.60868509638841</v>
+        <v>49.31514852411362</v>
       </c>
       <c r="I11" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J11" t="n">
-        <v>135.5536585935969</v>
+        <v>416.0853656505569</v>
       </c>
       <c r="K11" t="n">
-        <v>298.4006618101653</v>
+        <v>578.9323688671253</v>
       </c>
       <c r="L11" t="n">
-        <v>515.3719827698307</v>
+        <v>795.9036898267907</v>
       </c>
       <c r="M11" t="n">
-        <v>769.6205054001883</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N11" t="n">
-        <v>1029.851627328779</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O11" t="n">
-        <v>1270.179715674898</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P11" t="n">
         <v>1741.852980600561</v>
@@ -5071,22 +5071,22 @@
         <v>1941.047538131851</v>
       </c>
       <c r="T11" t="n">
-        <v>1727.657403147892</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="U11" t="n">
-        <v>1727.657403147892</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="V11" t="n">
-        <v>1727.657403147892</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="W11" t="n">
-        <v>1343.897102283061</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="X11" t="n">
-        <v>943.2537044520132</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="Y11" t="n">
-        <v>542.3170314001032</v>
+        <v>1540.110865079941</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>687.2060646415979</v>
+        <v>687.2060646415983</v>
       </c>
       <c r="C12" t="n">
-        <v>553.2109933905436</v>
+        <v>553.210993390544</v>
       </c>
       <c r="D12" t="n">
-        <v>436.3138356099362</v>
+        <v>436.3138356099364</v>
       </c>
       <c r="E12" t="n">
-        <v>315.8210196022642</v>
+        <v>315.8210196022644</v>
       </c>
       <c r="F12" t="n">
-        <v>206.8611397847687</v>
+        <v>206.861139784769</v>
       </c>
       <c r="G12" t="n">
-        <v>100.9486199300691</v>
+        <v>100.9486199300693</v>
       </c>
       <c r="H12" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="I12" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456042</v>
       </c>
       <c r="J12" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283647</v>
       </c>
       <c r="K12" t="n">
-        <v>448.4817711975032</v>
+        <v>851.7642360961712</v>
       </c>
       <c r="L12" t="n">
-        <v>789.9806669021164</v>
+        <v>1025.529467427512</v>
       </c>
       <c r="M12" t="n">
-        <v>1292.513144969923</v>
+        <v>1236.144828024485</v>
       </c>
       <c r="N12" t="n">
-        <v>1514.538368647211</v>
+        <v>1458.170051701773</v>
       </c>
       <c r="O12" t="n">
-        <v>1708.649055108187</v>
+        <v>1652.28073816275</v>
       </c>
       <c r="P12" t="n">
         <v>1856.610102265005</v>
@@ -5153,19 +5153,19 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U12" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V12" t="n">
-        <v>1376.470207038133</v>
+        <v>1376.470207038134</v>
       </c>
       <c r="W12" t="n">
         <v>1163.237038774462</v>
       </c>
       <c r="X12" t="n">
-        <v>986.9110569133545</v>
+        <v>986.911056913355</v>
       </c>
       <c r="Y12" t="n">
-        <v>827.5090972771845</v>
+        <v>827.509097277185</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>791.7308295742</v>
+        <v>703.5909719994288</v>
       </c>
       <c r="C13" t="n">
-        <v>620.6374571359165</v>
+        <v>532.4975995611453</v>
       </c>
       <c r="D13" t="n">
-        <v>620.6374571359165</v>
+        <v>532.4975995611453</v>
       </c>
       <c r="E13" t="n">
-        <v>459.726642004236</v>
+        <v>371.5867844294647</v>
       </c>
       <c r="F13" t="n">
-        <v>295.0955161148273</v>
+        <v>206.955658540056</v>
       </c>
       <c r="G13" t="n">
-        <v>128.7485426711596</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H13" t="n">
         <v>40.60868509638841</v>
@@ -5202,19 +5202,19 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K13" t="n">
-        <v>218.2476434626036</v>
+        <v>168.4359347020275</v>
       </c>
       <c r="L13" t="n">
-        <v>609.7854668739137</v>
+        <v>559.9737581133376</v>
       </c>
       <c r="M13" t="n">
-        <v>1037.84620846496</v>
+        <v>988.0344997043833</v>
       </c>
       <c r="N13" t="n">
-        <v>1454.181401062727</v>
+        <v>1404.369692302151</v>
       </c>
       <c r="O13" t="n">
-        <v>1838.894876941645</v>
+        <v>1789.083168181069</v>
       </c>
       <c r="P13" t="n">
         <v>1890.762731023884</v>
@@ -5229,22 +5229,22 @@
         <v>1815.134815648408</v>
       </c>
       <c r="T13" t="n">
-        <v>1815.134815648408</v>
+        <v>1579.446133774845</v>
       </c>
       <c r="U13" t="n">
-        <v>1532.385945519848</v>
+        <v>1296.697263646285</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.50020045937</v>
+        <v>1296.697263646285</v>
       </c>
       <c r="W13" t="n">
-        <v>979.4305359682444</v>
+        <v>1296.697263646285</v>
       </c>
       <c r="X13" t="n">
-        <v>979.4305359682444</v>
+        <v>1116.026377004709</v>
       </c>
       <c r="Y13" t="n">
-        <v>979.4305359682444</v>
+        <v>891.2906783934732</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>445.0726150033279</v>
+        <v>746.1293845506204</v>
       </c>
       <c r="C14" t="n">
-        <v>445.0726150033279</v>
+        <v>336.0047938638905</v>
       </c>
       <c r="D14" t="n">
-        <v>40.60868509638841</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="E14" t="n">
-        <v>40.60868509638841</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="F14" t="n">
-        <v>40.60868509638841</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="G14" t="n">
-        <v>40.60868509638841</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="H14" t="n">
         <v>40.60868509638841</v>
@@ -5278,52 +5278,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J14" t="n">
-        <v>135.5536585935969</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K14" t="n">
-        <v>298.4006618101653</v>
+        <v>625.1764886978945</v>
       </c>
       <c r="L14" t="n">
-        <v>533.6993001051035</v>
+        <v>922.8993569029317</v>
       </c>
       <c r="M14" t="n">
-        <v>787.9478227354612</v>
+        <v>1177.147879533289</v>
       </c>
       <c r="N14" t="n">
-        <v>1048.178944664052</v>
+        <v>1437.37900146188</v>
       </c>
       <c r="O14" t="n">
-        <v>1550.711422731859</v>
+        <v>1677.707089808</v>
       </c>
       <c r="P14" t="n">
-        <v>1741.852980600561</v>
+        <v>1868.848647676702</v>
       </c>
       <c r="Q14" t="n">
-        <v>1865.882367902809</v>
+        <v>1992.87803497895</v>
       </c>
       <c r="R14" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S14" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T14" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="U14" t="n">
-        <v>1980.250541414636</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="V14" t="n">
-        <v>1630.412986751117</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="W14" t="n">
-        <v>1246.652685886285</v>
+        <v>1557.28723726702</v>
       </c>
       <c r="X14" t="n">
-        <v>846.0092880552378</v>
+        <v>1557.28723726702</v>
       </c>
       <c r="Y14" t="n">
-        <v>445.0726150033279</v>
+        <v>1156.35056421511</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>687.2060646415979</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C15" t="n">
-        <v>553.2109933905436</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D15" t="n">
         <v>436.3138356099362</v>
@@ -5345,7 +5345,7 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F15" t="n">
-        <v>206.8611397847687</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G15" t="n">
         <v>100.9486199300691</v>
@@ -5354,31 +5354,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I15" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456042</v>
       </c>
       <c r="J15" t="n">
-        <v>220.4308468129456</v>
+        <v>105.5633540537314</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7081811802562</v>
+        <v>502.1623960378352</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4734125115972</v>
+        <v>675.9276273691762</v>
       </c>
       <c r="M15" t="n">
-        <v>1012.005890579404</v>
+        <v>886.5429879661491</v>
       </c>
       <c r="N15" t="n">
-        <v>1514.53836864721</v>
+        <v>1108.568211643437</v>
       </c>
       <c r="O15" t="n">
-        <v>1708.649055108187</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P15" t="n">
-        <v>1856.610102265005</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q15" t="n">
-        <v>1935.300869346252</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R15" t="n">
         <v>2030.43425481942</v>
@@ -5390,19 +5390,19 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U15" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V15" t="n">
-        <v>1376.470207038133</v>
+        <v>1376.470207038134</v>
       </c>
       <c r="W15" t="n">
         <v>1163.237038774462</v>
       </c>
       <c r="X15" t="n">
-        <v>986.9110569133545</v>
+        <v>986.911056913355</v>
       </c>
       <c r="Y15" t="n">
-        <v>827.5090972771845</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1093.838681716177</v>
+        <v>596.9036911571363</v>
       </c>
       <c r="C16" t="n">
-        <v>922.745309277894</v>
+        <v>596.9036911571363</v>
       </c>
       <c r="D16" t="n">
-        <v>763.2506646008039</v>
+        <v>596.9036911571363</v>
       </c>
       <c r="E16" t="n">
-        <v>602.3398494691234</v>
+        <v>435.9928760254558</v>
       </c>
       <c r="F16" t="n">
-        <v>437.7087235797146</v>
+        <v>271.361750136047</v>
       </c>
       <c r="G16" t="n">
         <v>271.361750136047</v>
@@ -5439,19 +5439,19 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K16" t="n">
-        <v>168.4359347020274</v>
+        <v>218.2476434626036</v>
       </c>
       <c r="L16" t="n">
-        <v>348.8879834007955</v>
+        <v>609.7854668739137</v>
       </c>
       <c r="M16" t="n">
-        <v>776.9487249918412</v>
+        <v>1037.84620846496</v>
       </c>
       <c r="N16" t="n">
-        <v>1193.283917589609</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O16" t="n">
-        <v>1577.997393468527</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P16" t="n">
         <v>1890.762731023884</v>
@@ -5460,28 +5460,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R16" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S16" t="n">
-        <v>1985.782478330112</v>
+        <v>1895.687531588852</v>
       </c>
       <c r="T16" t="n">
-        <v>1985.782478330112</v>
+        <v>1895.687531588852</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.987906958855</v>
+        <v>1612.938661460292</v>
       </c>
       <c r="V16" t="n">
-        <v>1835.987906958855</v>
+        <v>1339.052916399814</v>
       </c>
       <c r="W16" t="n">
-        <v>1556.918242467729</v>
+        <v>1059.983251908688</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.574380327413</v>
+        <v>821.6393897683716</v>
       </c>
       <c r="Y16" t="n">
-        <v>1093.838681716177</v>
+        <v>596.9036911571363</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>612.5394768698933</v>
+        <v>1269.537421173161</v>
       </c>
       <c r="C17" t="n">
-        <v>202.4148861831634</v>
+        <v>859.4128304864312</v>
       </c>
       <c r="D17" t="n">
-        <v>202.4148861831634</v>
+        <v>454.9489005794917</v>
       </c>
       <c r="E17" t="n">
         <v>40.60868509638841</v>
@@ -5515,16 +5515,16 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J17" t="n">
-        <v>135.5536585935969</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K17" t="n">
-        <v>298.4006618101653</v>
+        <v>625.1764886978945</v>
       </c>
       <c r="L17" t="n">
-        <v>515.3719827698307</v>
+        <v>922.8993569029317</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.904460837637</v>
+        <v>1177.147879533289</v>
       </c>
       <c r="N17" t="n">
         <v>1437.37900146188</v>
@@ -5542,25 +5542,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S17" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T17" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="U17" t="n">
-        <v>1773.534884249812</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="V17" t="n">
-        <v>1423.697329586293</v>
+        <v>1653.297722037992</v>
       </c>
       <c r="W17" t="n">
-        <v>1423.697329586293</v>
+        <v>1269.537421173161</v>
       </c>
       <c r="X17" t="n">
-        <v>1423.697329586293</v>
+        <v>1269.537421173161</v>
       </c>
       <c r="Y17" t="n">
-        <v>1022.760656534383</v>
+        <v>1269.537421173161</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>687.206064641598</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C18" t="n">
-        <v>553.2109933905438</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D18" t="n">
         <v>436.3138356099362</v>
@@ -5582,7 +5582,7 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F18" t="n">
-        <v>206.8611397847688</v>
+        <v>206.8611397847687</v>
       </c>
       <c r="G18" t="n">
         <v>100.9486199300691</v>
@@ -5591,31 +5591,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I18" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456042</v>
       </c>
       <c r="J18" t="n">
-        <v>89.53603285555944</v>
+        <v>349.2317580283647</v>
       </c>
       <c r="K18" t="n">
-        <v>204.81336722287</v>
+        <v>502.1623960378352</v>
       </c>
       <c r="L18" t="n">
-        <v>378.5785985542111</v>
+        <v>675.9276273691762</v>
       </c>
       <c r="M18" t="n">
-        <v>589.1939591511839</v>
+        <v>886.5429879661491</v>
       </c>
       <c r="N18" t="n">
-        <v>811.2191828284714</v>
+        <v>1108.568211643437</v>
       </c>
       <c r="O18" t="n">
-        <v>1005.329869289448</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P18" t="n">
-        <v>1450.63994526123</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q18" t="n">
-        <v>1935.300869346252</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R18" t="n">
         <v>2030.43425481942</v>
@@ -5636,10 +5636,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X18" t="n">
-        <v>986.9110569133546</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y18" t="n">
-        <v>827.5090972771847</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1093.838681716177</v>
+        <v>556.0421477006366</v>
       </c>
       <c r="C19" t="n">
-        <v>922.745309277894</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="D19" t="n">
-        <v>763.2506646008039</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="E19" t="n">
-        <v>602.3398494691234</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="F19" t="n">
         <v>437.7087235797146</v>
@@ -5673,19 +5673,19 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J19" t="n">
-        <v>52.2904519997555</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K19" t="n">
-        <v>309.7147646564051</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L19" t="n">
-        <v>701.2525880677152</v>
+        <v>766.2539516990518</v>
       </c>
       <c r="M19" t="n">
-        <v>784.3469801444755</v>
+        <v>1194.314693290097</v>
       </c>
       <c r="N19" t="n">
-        <v>1193.283917589609</v>
+        <v>1278.61558444028</v>
       </c>
       <c r="O19" t="n">
         <v>1577.997393468527</v>
@@ -5697,28 +5697,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R19" t="n">
-        <v>2030.43425481942</v>
+        <v>1985.782478330112</v>
       </c>
       <c r="S19" t="n">
-        <v>2030.43425481942</v>
+        <v>1815.134815648408</v>
       </c>
       <c r="T19" t="n">
-        <v>2030.43425481942</v>
+        <v>1579.446133774845</v>
       </c>
       <c r="U19" t="n">
-        <v>2030.43425481942</v>
+        <v>1296.697263646285</v>
       </c>
       <c r="V19" t="n">
-        <v>1756.548509758942</v>
+        <v>1022.811518585807</v>
       </c>
       <c r="W19" t="n">
-        <v>1744.617948861774</v>
+        <v>743.741854094681</v>
       </c>
       <c r="X19" t="n">
-        <v>1506.274086721457</v>
+        <v>743.741854094681</v>
       </c>
       <c r="Y19" t="n">
-        <v>1281.538388110222</v>
+        <v>743.741854094681</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2030.43425481942</v>
+        <v>1294.810366740259</v>
       </c>
       <c r="C20" t="n">
-        <v>1695.863975431615</v>
+        <v>884.6857760535294</v>
       </c>
       <c r="D20" t="n">
-        <v>1291.400045524676</v>
+        <v>884.6857760535294</v>
       </c>
       <c r="E20" t="n">
-        <v>877.0598300415728</v>
+        <v>470.3455605704261</v>
       </c>
       <c r="F20" t="n">
-        <v>456.0294179952604</v>
+        <v>49.3151485241136</v>
       </c>
       <c r="G20" t="n">
-        <v>49.31514852411362</v>
+        <v>49.3151485241136</v>
       </c>
       <c r="H20" t="n">
-        <v>49.31514852411362</v>
+        <v>49.3151485241136</v>
       </c>
       <c r="I20" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J20" t="n">
-        <v>135.5536585935969</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K20" t="n">
-        <v>298.4006618101653</v>
+        <v>625.1764886978945</v>
       </c>
       <c r="L20" t="n">
-        <v>515.3719827698307</v>
+        <v>842.1478096575599</v>
       </c>
       <c r="M20" t="n">
-        <v>769.6205054001883</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N20" t="n">
-        <v>1029.851627328779</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O20" t="n">
-        <v>1270.179715674898</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P20" t="n">
-        <v>1461.321273543601</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q20" t="n">
-        <v>1963.853751611407</v>
+        <v>1912.126487733579</v>
       </c>
       <c r="R20" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S20" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T20" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="U20" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="V20" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="W20" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="X20" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="Y20" t="n">
-        <v>2030.43425481942</v>
+        <v>1705.031546404749</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I21" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J21" t="n">
-        <v>89.53603285555944</v>
+        <v>349.2317580283647</v>
       </c>
       <c r="K21" t="n">
-        <v>204.81336722287</v>
+        <v>464.5090923956753</v>
       </c>
       <c r="L21" t="n">
-        <v>707.3458452906765</v>
+        <v>638.2743237270164</v>
       </c>
       <c r="M21" t="n">
-        <v>917.9612058876494</v>
+        <v>848.8896843239893</v>
       </c>
       <c r="N21" t="n">
-        <v>1139.986429564937</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O21" t="n">
-        <v>1642.518907632743</v>
+        <v>1265.025594462254</v>
       </c>
       <c r="P21" t="n">
-        <v>1856.610102265005</v>
+        <v>1450.63994526123</v>
       </c>
       <c r="Q21" t="n">
         <v>1935.300869346252</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>649.5972021381227</v>
+        <v>499.2989315043523</v>
       </c>
       <c r="C22" t="n">
-        <v>478.5038296998392</v>
+        <v>499.2989315043523</v>
       </c>
       <c r="D22" t="n">
-        <v>455.328439989062</v>
+        <v>499.2989315043523</v>
       </c>
       <c r="E22" t="n">
-        <v>294.4176248573814</v>
+        <v>499.2989315043523</v>
       </c>
       <c r="F22" t="n">
-        <v>129.7864989679727</v>
+        <v>334.6678056149435</v>
       </c>
       <c r="G22" t="n">
-        <v>129.7864989679727</v>
+        <v>271.361750136047</v>
       </c>
       <c r="H22" t="n">
         <v>129.7864989679727</v>
@@ -5913,22 +5913,22 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K22" t="n">
-        <v>374.7161282877415</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L22" t="n">
-        <v>766.2539516990516</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M22" t="n">
-        <v>1194.314693290097</v>
+        <v>1194.314693290098</v>
       </c>
       <c r="N22" t="n">
-        <v>1278.61558444028</v>
+        <v>1610.649885887866</v>
       </c>
       <c r="O22" t="n">
-        <v>1663.329060319198</v>
+        <v>1704.271353674364</v>
       </c>
       <c r="P22" t="n">
-        <v>1976.094397874554</v>
+        <v>2017.036691229721</v>
       </c>
       <c r="Q22" t="n">
         <v>2030.43425481942</v>
@@ -5937,25 +5937,25 @@
         <v>1985.782478330112</v>
       </c>
       <c r="S22" t="n">
-        <v>1815.134815648408</v>
+        <v>1985.782478330112</v>
       </c>
       <c r="T22" t="n">
-        <v>1579.446133774845</v>
+        <v>1985.782478330112</v>
       </c>
       <c r="U22" t="n">
-        <v>1579.446133774845</v>
+        <v>1703.033608201552</v>
       </c>
       <c r="V22" t="n">
-        <v>1579.446133774845</v>
+        <v>1429.147863141074</v>
       </c>
       <c r="W22" t="n">
-        <v>1300.376469283719</v>
+        <v>1150.078198649948</v>
       </c>
       <c r="X22" t="n">
-        <v>1062.032607143402</v>
+        <v>911.7343365096319</v>
       </c>
       <c r="Y22" t="n">
-        <v>837.2969085321671</v>
+        <v>686.9986378983966</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1696.259161612081</v>
+        <v>2242.927760956131</v>
       </c>
       <c r="C23" t="n">
-        <v>1288.960915355157</v>
+        <v>1832.803170269401</v>
       </c>
       <c r="D23" t="n">
-        <v>884.4969854482175</v>
+        <v>1428.339240362462</v>
       </c>
       <c r="E23" t="n">
-        <v>470.1567699651142</v>
+        <v>1013.999024879358</v>
       </c>
       <c r="F23" t="n">
-        <v>49.12635791880179</v>
+        <v>592.9686128330459</v>
       </c>
       <c r="G23" t="n">
-        <v>49.12635791880179</v>
+        <v>186.2543433618991</v>
       </c>
       <c r="H23" t="n">
-        <v>49.12635791880179</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="I23" t="n">
         <v>49.12635791880179</v>
@@ -5995,7 +5995,7 @@
         <v>633.6941615203078</v>
       </c>
       <c r="L23" t="n">
-        <v>850.6654824799732</v>
+        <v>850.6654824799733</v>
       </c>
       <c r="M23" t="n">
         <v>1104.914005110331</v>
@@ -6004,37 +6004,37 @@
         <v>1365.145127038922</v>
       </c>
       <c r="O23" t="n">
-        <v>1605.473215385041</v>
+        <v>1605.473215385042</v>
       </c>
       <c r="P23" t="n">
-        <v>1796.614773253744</v>
+        <v>1884.437815646919</v>
       </c>
       <c r="Q23" t="n">
-        <v>2330.938633706444</v>
+        <v>2418.76167609962</v>
       </c>
       <c r="R23" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S23" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="T23" t="n">
-        <v>2456.317895940089</v>
+        <v>2242.927760956131</v>
       </c>
       <c r="U23" t="n">
-        <v>2456.317895940089</v>
+        <v>2242.927760956131</v>
       </c>
       <c r="V23" t="n">
-        <v>2106.48034127657</v>
+        <v>2242.927760956131</v>
       </c>
       <c r="W23" t="n">
-        <v>2106.48034127657</v>
+        <v>2242.927760956131</v>
       </c>
       <c r="X23" t="n">
-        <v>2106.48034127657</v>
+        <v>2242.927760956131</v>
       </c>
       <c r="Y23" t="n">
-        <v>2106.48034127657</v>
+        <v>2242.927760956131</v>
       </c>
     </row>
     <row r="24">
@@ -6047,10 +6047,10 @@
         <v>695.7237374640115</v>
       </c>
       <c r="C24" t="n">
-        <v>561.7286662129571</v>
+        <v>561.7286662129573</v>
       </c>
       <c r="D24" t="n">
-        <v>444.8315084323496</v>
+        <v>444.8315084323497</v>
       </c>
       <c r="E24" t="n">
         <v>324.3386924246776</v>
@@ -6068,25 +6068,25 @@
         <v>49.12635791880179</v>
       </c>
       <c r="J24" t="n">
-        <v>98.05370567797283</v>
+        <v>98.05370567797284</v>
       </c>
       <c r="K24" t="n">
-        <v>705.992384923145</v>
+        <v>213.3310400452835</v>
       </c>
       <c r="L24" t="n">
-        <v>879.757616254486</v>
+        <v>387.0962713766246</v>
       </c>
       <c r="M24" t="n">
-        <v>1389.000534269317</v>
+        <v>597.7116319735975</v>
       </c>
       <c r="N24" t="n">
-        <v>1611.025757946605</v>
+        <v>819.736855650885</v>
       </c>
       <c r="O24" t="n">
-        <v>1805.136444407582</v>
+        <v>1013.847542111862</v>
       </c>
       <c r="P24" t="n">
-        <v>1953.097491564399</v>
+        <v>1547.127334560625</v>
       </c>
       <c r="Q24" t="n">
         <v>2031.788258645647</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>687.6365996459172</v>
+        <v>563.498004559062</v>
       </c>
       <c r="C25" t="n">
-        <v>516.5432272076337</v>
+        <v>392.4046321207785</v>
       </c>
       <c r="D25" t="n">
-        <v>357.0485825305437</v>
+        <v>392.4046321207785</v>
       </c>
       <c r="E25" t="n">
-        <v>357.0485825305437</v>
+        <v>392.4046321207785</v>
       </c>
       <c r="F25" t="n">
-        <v>357.0485825305437</v>
+        <v>227.7735062313698</v>
       </c>
       <c r="G25" t="n">
-        <v>190.7016090868761</v>
+        <v>61.42653278770214</v>
       </c>
       <c r="H25" t="n">
-        <v>49.12635791880179</v>
+        <v>61.42653278770214</v>
       </c>
       <c r="I25" t="n">
         <v>49.12635791880179</v>
       </c>
       <c r="J25" t="n">
-        <v>125.8094884535045</v>
+        <v>125.8094884535055</v>
       </c>
       <c r="K25" t="n">
-        <v>383.2338011101541</v>
+        <v>383.2338011101552</v>
       </c>
       <c r="L25" t="n">
-        <v>774.7716245214642</v>
+        <v>774.7716245214654</v>
       </c>
       <c r="M25" t="n">
-        <v>1202.83236611251</v>
+        <v>1202.832366112511</v>
       </c>
       <c r="N25" t="n">
-        <v>1619.167558710278</v>
+        <v>1619.167558710279</v>
       </c>
       <c r="O25" t="n">
-        <v>2003.881034589196</v>
+        <v>2003.881034589197</v>
       </c>
       <c r="P25" t="n">
         <v>2316.646372144553</v>
       </c>
       <c r="Q25" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="R25" t="n">
-        <v>2411.666119450781</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S25" t="n">
-        <v>2241.018456769078</v>
+        <v>2285.670233258385</v>
       </c>
       <c r="T25" t="n">
-        <v>2005.329774895514</v>
+        <v>2049.981551384822</v>
       </c>
       <c r="U25" t="n">
-        <v>1722.580904766954</v>
+        <v>1767.232681256262</v>
       </c>
       <c r="V25" t="n">
-        <v>1448.695159706476</v>
+        <v>1493.346936195784</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.62549521535</v>
+        <v>1214.277271704658</v>
       </c>
       <c r="X25" t="n">
-        <v>931.2816330750338</v>
+        <v>975.9334095643417</v>
       </c>
       <c r="Y25" t="n">
-        <v>706.5459344637985</v>
+        <v>751.1977109531064</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>941.7397937211142</v>
+        <v>1495.705000647044</v>
       </c>
       <c r="C26" t="n">
-        <v>760.4392399462456</v>
+        <v>1495.705000647044</v>
       </c>
       <c r="D26" t="n">
-        <v>760.4392399462456</v>
+        <v>1091.241070740104</v>
       </c>
       <c r="E26" t="n">
-        <v>760.4392399462456</v>
+        <v>676.9008552570008</v>
       </c>
       <c r="F26" t="n">
-        <v>339.4088278999332</v>
+        <v>676.9008552570008</v>
       </c>
       <c r="G26" t="n">
-        <v>339.4088278999332</v>
+        <v>270.186585785854</v>
       </c>
       <c r="H26" t="n">
-        <v>49.12635791880179</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="I26" t="n">
         <v>49.12635791880179</v>
       </c>
       <c r="J26" t="n">
-        <v>144.0713314160103</v>
+        <v>470.8471583037394</v>
       </c>
       <c r="K26" t="n">
-        <v>330.5498456279763</v>
+        <v>633.6941615203078</v>
       </c>
       <c r="L26" t="n">
-        <v>938.4885248731484</v>
+        <v>1241.63284076548</v>
       </c>
       <c r="M26" t="n">
-        <v>1192.737047503506</v>
+        <v>1495.881363395838</v>
       </c>
       <c r="N26" t="n">
-        <v>1452.968169432097</v>
+        <v>1863.26264258255</v>
       </c>
       <c r="O26" t="n">
-        <v>1693.296257778216</v>
+        <v>2103.590730928669</v>
       </c>
       <c r="P26" t="n">
-        <v>1884.437815646919</v>
+        <v>2294.732288797372</v>
       </c>
       <c r="Q26" t="n">
-        <v>2418.761676099619</v>
+        <v>2418.76167609962</v>
       </c>
       <c r="R26" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S26" t="n">
         <v>2366.93117925252</v>
       </c>
       <c r="T26" t="n">
-        <v>2153.541044268561</v>
+        <v>2153.541044268562</v>
       </c>
       <c r="U26" t="n">
-        <v>2153.541044268561</v>
+        <v>1896.641673698953</v>
       </c>
       <c r="V26" t="n">
-        <v>2153.541044268561</v>
+        <v>1896.641673698953</v>
       </c>
       <c r="W26" t="n">
-        <v>2153.541044268561</v>
+        <v>1896.641673698953</v>
       </c>
       <c r="X26" t="n">
-        <v>1752.897646437514</v>
+        <v>1896.641673698953</v>
       </c>
       <c r="Y26" t="n">
-        <v>1351.960973385604</v>
+        <v>1495.705000647044</v>
       </c>
     </row>
     <row r="27">
@@ -6284,10 +6284,10 @@
         <v>695.7237374640115</v>
       </c>
       <c r="C27" t="n">
-        <v>561.7286662129571</v>
+        <v>561.7286662129573</v>
       </c>
       <c r="D27" t="n">
-        <v>444.8315084323496</v>
+        <v>444.8315084323497</v>
       </c>
       <c r="E27" t="n">
         <v>324.3386924246776</v>
@@ -6305,28 +6305,28 @@
         <v>49.12635791880179</v>
       </c>
       <c r="J27" t="n">
-        <v>341.722109652606</v>
+        <v>98.05370567797284</v>
       </c>
       <c r="K27" t="n">
-        <v>456.9994440199166</v>
+        <v>598.649785337229</v>
       </c>
       <c r="L27" t="n">
-        <v>630.7646753512577</v>
+        <v>772.41501666857</v>
       </c>
       <c r="M27" t="n">
-        <v>841.3800359482304</v>
+        <v>983.0303772655429</v>
       </c>
       <c r="N27" t="n">
-        <v>1063.405259625518</v>
+        <v>1205.055600942831</v>
       </c>
       <c r="O27" t="n">
-        <v>1311.196570926826</v>
+        <v>1399.166287403808</v>
       </c>
       <c r="P27" t="n">
-        <v>1459.157618083644</v>
+        <v>1547.127334560625</v>
       </c>
       <c r="Q27" t="n">
-        <v>1943.818542168665</v>
+        <v>2031.788258645647</v>
       </c>
       <c r="R27" t="n">
         <v>2038.951927641833</v>
@@ -6396,28 +6396,28 @@
         <v>1202.832366112511</v>
       </c>
       <c r="N28" t="n">
-        <v>1619.167558710278</v>
+        <v>1619.167558710279</v>
       </c>
       <c r="O28" t="n">
-        <v>2003.881034589196</v>
+        <v>2003.881034589197</v>
       </c>
       <c r="P28" t="n">
-        <v>2316.646372144553</v>
+        <v>2316.646372144554</v>
       </c>
       <c r="Q28" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="R28" t="n">
-        <v>2456.317895940089</v>
+        <v>2411.666119450782</v>
       </c>
       <c r="S28" t="n">
-        <v>2456.317895940089</v>
+        <v>2241.018456769078</v>
       </c>
       <c r="T28" t="n">
-        <v>2456.317895940089</v>
+        <v>2032.205286175312</v>
       </c>
       <c r="U28" t="n">
-        <v>2306.091031235791</v>
+        <v>2032.205286175312</v>
       </c>
       <c r="V28" t="n">
         <v>2032.205286175312</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>769.1457033739709</v>
+        <v>949.0364013029932</v>
       </c>
       <c r="C29" t="n">
-        <v>769.1457033739709</v>
+        <v>753.7490433830365</v>
       </c>
       <c r="D29" t="n">
-        <v>769.1457033739709</v>
+        <v>753.7490433830365</v>
       </c>
       <c r="E29" t="n">
-        <v>769.1457033739709</v>
+        <v>339.4088278999332</v>
       </c>
       <c r="F29" t="n">
-        <v>348.1152913276584</v>
+        <v>339.4088278999332</v>
       </c>
       <c r="G29" t="n">
-        <v>348.1152913276584</v>
+        <v>339.4088278999332</v>
       </c>
       <c r="H29" t="n">
-        <v>57.832821346527</v>
+        <v>49.12635791880179</v>
       </c>
       <c r="I29" t="n">
         <v>49.12635791880179</v>
@@ -6469,46 +6469,46 @@
         <v>633.6941615203078</v>
       </c>
       <c r="L29" t="n">
-        <v>1241.63284076548</v>
+        <v>850.6654824799733</v>
       </c>
       <c r="M29" t="n">
-        <v>1495.881363395838</v>
+        <v>1104.914005110331</v>
       </c>
       <c r="N29" t="n">
-        <v>1756.112485324429</v>
+        <v>1365.145127038922</v>
       </c>
       <c r="O29" t="n">
-        <v>2103.590730928669</v>
+        <v>1605.473215385042</v>
       </c>
       <c r="P29" t="n">
-        <v>2294.732288797371</v>
+        <v>1796.614773253744</v>
       </c>
       <c r="Q29" t="n">
-        <v>2418.761676099619</v>
+        <v>2330.938633706445</v>
       </c>
       <c r="R29" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S29" t="n">
         <v>2366.93117925252</v>
       </c>
       <c r="T29" t="n">
-        <v>2153.541044268561</v>
+        <v>2366.93117925252</v>
       </c>
       <c r="U29" t="n">
-        <v>1896.641673698953</v>
+        <v>2110.031808682912</v>
       </c>
       <c r="V29" t="n">
-        <v>1546.804119035434</v>
+        <v>1760.194254019393</v>
       </c>
       <c r="W29" t="n">
-        <v>1163.043818170602</v>
+        <v>1760.194254019393</v>
       </c>
       <c r="X29" t="n">
-        <v>1163.043818170602</v>
+        <v>1760.194254019393</v>
       </c>
       <c r="Y29" t="n">
-        <v>1163.043818170602</v>
+        <v>1359.257580967483</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1113.089705762267</v>
+        <v>695.7237374640115</v>
       </c>
       <c r="C30" t="n">
-        <v>979.0946345112131</v>
+        <v>561.7286662129573</v>
       </c>
       <c r="D30" t="n">
-        <v>862.1974767306056</v>
+        <v>444.8315084323497</v>
       </c>
       <c r="E30" t="n">
-        <v>741.7046607229336</v>
+        <v>324.3386924246776</v>
       </c>
       <c r="F30" t="n">
-        <v>632.7447809054381</v>
+        <v>215.3788126071822</v>
       </c>
       <c r="G30" t="n">
-        <v>526.8322610507385</v>
+        <v>109.4662927524825</v>
       </c>
       <c r="H30" t="n">
-        <v>466.4923262170577</v>
+        <v>49.12635791880179</v>
       </c>
       <c r="I30" t="n">
-        <v>482.5196474152297</v>
+        <v>65.15367911697382</v>
       </c>
       <c r="J30" t="n">
-        <v>531.4469951744007</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K30" t="n">
-        <v>646.7243295417113</v>
+        <v>510.6800688602476</v>
       </c>
       <c r="L30" t="n">
-        <v>820.4895608730524</v>
+        <v>684.4453001915887</v>
       </c>
       <c r="M30" t="n">
-        <v>1031.104921470025</v>
+        <v>895.0606607885616</v>
       </c>
       <c r="N30" t="n">
-        <v>1639.043600715197</v>
+        <v>1117.085884465849</v>
       </c>
       <c r="O30" t="n">
-        <v>1833.154287176174</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P30" t="n">
-        <v>2282.493743385673</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q30" t="n">
-        <v>2361.184510466921</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R30" t="n">
-        <v>2456.317895940089</v>
+        <v>2038.951927641833</v>
       </c>
       <c r="S30" t="n">
-        <v>2368.343700261076</v>
+        <v>1950.97773196282</v>
       </c>
       <c r="T30" t="n">
-        <v>2213.345291762355</v>
+        <v>1795.979323464099</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.065375165769</v>
+        <v>1598.699406867513</v>
       </c>
       <c r="V30" t="n">
-        <v>1802.353848158802</v>
+        <v>1384.987879860546</v>
       </c>
       <c r="W30" t="n">
-        <v>1589.120679895131</v>
+        <v>1171.754711596875</v>
       </c>
       <c r="X30" t="n">
-        <v>1412.794698034024</v>
+        <v>995.4287297357681</v>
       </c>
       <c r="Y30" t="n">
-        <v>1253.392738397854</v>
+        <v>836.0267700995981</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>754.5349099433175</v>
+        <v>563.498004559062</v>
       </c>
       <c r="C31" t="n">
-        <v>583.441537505034</v>
+        <v>541.0152723835587</v>
       </c>
       <c r="D31" t="n">
-        <v>583.441537505034</v>
+        <v>541.0152723835587</v>
       </c>
       <c r="E31" t="n">
-        <v>583.441537505034</v>
+        <v>380.1044572518782</v>
       </c>
       <c r="F31" t="n">
-        <v>418.8104116156253</v>
+        <v>215.4733313624694</v>
       </c>
       <c r="G31" t="n">
-        <v>279.8794229584604</v>
+        <v>49.12635791880179</v>
       </c>
       <c r="H31" t="n">
-        <v>138.3041717903861</v>
+        <v>49.12635791880179</v>
       </c>
       <c r="I31" t="n">
         <v>49.12635791880179</v>
@@ -6636,37 +6636,37 @@
         <v>1619.167558710278</v>
       </c>
       <c r="O31" t="n">
-        <v>2003.881034589196</v>
+        <v>2003.881034589197</v>
       </c>
       <c r="P31" t="n">
         <v>2316.646372144553</v>
       </c>
       <c r="Q31" t="n">
-        <v>2456.317895940089</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="R31" t="n">
-        <v>2411.666119450781</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S31" t="n">
-        <v>2241.018456769078</v>
+        <v>2285.670233258385</v>
       </c>
       <c r="T31" t="n">
-        <v>2241.018456769078</v>
+        <v>2049.981551384822</v>
       </c>
       <c r="U31" t="n">
-        <v>1958.269586640517</v>
+        <v>1767.232681256262</v>
       </c>
       <c r="V31" t="n">
-        <v>1684.383841580039</v>
+        <v>1493.346936195784</v>
       </c>
       <c r="W31" t="n">
-        <v>1405.314177088914</v>
+        <v>1214.277271704658</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.970314948597</v>
+        <v>975.9334095643417</v>
       </c>
       <c r="Y31" t="n">
-        <v>942.2346163373619</v>
+        <v>751.1977109531064</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1581.493724900496</v>
+        <v>1633.33332372417</v>
       </c>
       <c r="C32" t="n">
-        <v>1581.493724900496</v>
+        <v>1633.33332372417</v>
       </c>
       <c r="D32" t="n">
-        <v>1581.493724900496</v>
+        <v>1228.86939381723</v>
       </c>
       <c r="E32" t="n">
-        <v>1167.153509417392</v>
+        <v>814.529178334127</v>
       </c>
       <c r="F32" t="n">
         <v>746.1230973710799</v>
@@ -6700,52 +6700,52 @@
         <v>49.12635791880179</v>
       </c>
       <c r="J32" t="n">
-        <v>144.0713314160103</v>
+        <v>470.8471583037394</v>
       </c>
       <c r="K32" t="n">
-        <v>651.1258533729804</v>
+        <v>1078.785837548912</v>
       </c>
       <c r="L32" t="n">
-        <v>868.0971743326457</v>
+        <v>1295.757158508577</v>
       </c>
       <c r="M32" t="n">
-        <v>1476.035853577818</v>
+        <v>1550.005681138935</v>
       </c>
       <c r="N32" t="n">
-        <v>1736.266975506409</v>
+        <v>1810.236803067526</v>
       </c>
       <c r="O32" t="n">
-        <v>1976.595063852528</v>
+        <v>2103.590730928669</v>
       </c>
       <c r="P32" t="n">
-        <v>2167.736621721231</v>
+        <v>2294.732288797372</v>
       </c>
       <c r="Q32" t="n">
-        <v>2291.766009023479</v>
+        <v>2418.76167609962</v>
       </c>
       <c r="R32" t="n">
         <v>2456.31789594009</v>
       </c>
       <c r="S32" t="n">
-        <v>2456.31789594009</v>
+        <v>2366.93117925252</v>
       </c>
       <c r="T32" t="n">
-        <v>2456.31789594009</v>
+        <v>2366.93117925252</v>
       </c>
       <c r="U32" t="n">
-        <v>2383.073795783453</v>
+        <v>2366.93117925252</v>
       </c>
       <c r="V32" t="n">
-        <v>2383.073795783453</v>
+        <v>2017.093624589001</v>
       </c>
       <c r="W32" t="n">
-        <v>2383.073795783453</v>
+        <v>1633.33332372417</v>
       </c>
       <c r="X32" t="n">
-        <v>1982.430397952406</v>
+        <v>1633.33332372417</v>
       </c>
       <c r="Y32" t="n">
-        <v>1581.493724900496</v>
+        <v>1633.33332372417</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>49.12635791880179</v>
       </c>
       <c r="I33" t="n">
-        <v>49.12635791880179</v>
+        <v>65.15367911697382</v>
       </c>
       <c r="J33" t="n">
-        <v>341.722109652606</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K33" t="n">
-        <v>456.9994440199166</v>
+        <v>510.6800688602476</v>
       </c>
       <c r="L33" t="n">
-        <v>718.4075415839895</v>
+        <v>684.4453001915887</v>
       </c>
       <c r="M33" t="n">
-        <v>929.0229021809624</v>
+        <v>895.0606607885616</v>
       </c>
       <c r="N33" t="n">
-        <v>1151.04812585825</v>
+        <v>1117.085884465849</v>
       </c>
       <c r="O33" t="n">
-        <v>1345.158812319227</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P33" t="n">
-        <v>1953.097491564399</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q33" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R33" t="n">
         <v>2038.951927641833</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1102.356354538591</v>
+        <v>1033.946581081666</v>
       </c>
       <c r="C34" t="n">
-        <v>931.2629821003072</v>
+        <v>862.8532086433829</v>
       </c>
       <c r="D34" t="n">
-        <v>771.7683374232172</v>
+        <v>703.3585639662929</v>
       </c>
       <c r="E34" t="n">
-        <v>610.8575222915367</v>
+        <v>542.4477488346124</v>
       </c>
       <c r="F34" t="n">
-        <v>446.226396402128</v>
+        <v>377.8166229452037</v>
       </c>
       <c r="G34" t="n">
         <v>279.8794229584604</v>
@@ -6858,19 +6858,19 @@
         <v>49.12635791880179</v>
       </c>
       <c r="J34" t="n">
-        <v>125.8094884535049</v>
+        <v>125.8094884535053</v>
       </c>
       <c r="K34" t="n">
-        <v>383.2338011101547</v>
+        <v>383.233801110155</v>
       </c>
       <c r="L34" t="n">
-        <v>774.7716245214647</v>
+        <v>774.7716245214649</v>
       </c>
       <c r="M34" t="n">
-        <v>1202.83236611251</v>
+        <v>1202.832366112511</v>
       </c>
       <c r="N34" t="n">
-        <v>1619.167558710278</v>
+        <v>1619.167558710279</v>
       </c>
       <c r="O34" t="n">
         <v>2003.881034589197</v>
@@ -6882,28 +6882,28 @@
         <v>2456.31789594009</v>
       </c>
       <c r="R34" t="n">
-        <v>2411.666119450782</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S34" t="n">
-        <v>2267.893968048876</v>
+        <v>2285.670233258385</v>
       </c>
       <c r="T34" t="n">
-        <v>2032.205286175312</v>
+        <v>2049.981551384822</v>
       </c>
       <c r="U34" t="n">
-        <v>2032.205286175312</v>
+        <v>2049.981551384822</v>
       </c>
       <c r="V34" t="n">
-        <v>2032.205286175312</v>
+        <v>1776.095806324344</v>
       </c>
       <c r="W34" t="n">
-        <v>1753.135621684187</v>
+        <v>1497.026141833218</v>
       </c>
       <c r="X34" t="n">
-        <v>1514.79175954387</v>
+        <v>1258.682279692902</v>
       </c>
       <c r="Y34" t="n">
-        <v>1290.056060932635</v>
+        <v>1033.946581081666</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1162.046157810562</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="C35" t="n">
-        <v>751.9215671238323</v>
+        <v>1620.309664132691</v>
       </c>
       <c r="D35" t="n">
-        <v>751.9215671238323</v>
+        <v>1291.400045524676</v>
       </c>
       <c r="E35" t="n">
-        <v>751.9215671238323</v>
+        <v>877.0598300415728</v>
       </c>
       <c r="F35" t="n">
-        <v>330.8911550775198</v>
+        <v>456.0294179952604</v>
       </c>
       <c r="G35" t="n">
-        <v>330.8911550775198</v>
+        <v>49.3151485241136</v>
       </c>
       <c r="H35" t="n">
-        <v>40.60868509638841</v>
+        <v>49.3151485241136</v>
       </c>
       <c r="I35" t="n">
         <v>40.60868509638841</v>
@@ -6940,49 +6940,49 @@
         <v>135.5536585935969</v>
       </c>
       <c r="K35" t="n">
-        <v>298.4006618101653</v>
+        <v>298.4006618101654</v>
       </c>
       <c r="L35" t="n">
-        <v>795.9036898267909</v>
+        <v>515.3719827698309</v>
       </c>
       <c r="M35" t="n">
-        <v>1050.152212457149</v>
+        <v>769.6205054001886</v>
       </c>
       <c r="N35" t="n">
-        <v>1310.38333438574</v>
+        <v>1029.85162732878</v>
       </c>
       <c r="O35" t="n">
-        <v>1550.711422731859</v>
+        <v>1270.179715674899</v>
       </c>
       <c r="P35" t="n">
-        <v>1741.852980600561</v>
+        <v>1461.321273543602</v>
       </c>
       <c r="Q35" t="n">
-        <v>1865.882367902809</v>
+        <v>1963.853751611408</v>
       </c>
       <c r="R35" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S35" t="n">
-        <v>1941.047538131851</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T35" t="n">
-        <v>1895.644013338913</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="U35" t="n">
-        <v>1895.644013338913</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="V35" t="n">
-        <v>1545.806458675394</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="W35" t="n">
-        <v>1162.046157810562</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="X35" t="n">
-        <v>1162.046157810562</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="Y35" t="n">
-        <v>1162.046157810562</v>
+        <v>2030.43425481942</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>687.2060646415986</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C36" t="n">
-        <v>553.2109933905442</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D36" t="n">
-        <v>436.3138356099366</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E36" t="n">
-        <v>315.8210196022646</v>
+        <v>315.8210196022642</v>
       </c>
       <c r="F36" t="n">
-        <v>206.8611397847692</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G36" t="n">
-        <v>100.9486199300693</v>
+        <v>100.9486199300691</v>
       </c>
       <c r="H36" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="I36" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J36" t="n">
-        <v>89.53603285555944</v>
+        <v>349.2317580283647</v>
       </c>
       <c r="K36" t="n">
-        <v>592.068510923366</v>
+        <v>502.1623960378344</v>
       </c>
       <c r="L36" t="n">
-        <v>765.8337422547071</v>
+        <v>675.9276273691754</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.366220322514</v>
+        <v>886.5429879661483</v>
       </c>
       <c r="N36" t="n">
-        <v>1602.508085124192</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O36" t="n">
-        <v>1796.618771585169</v>
+        <v>1302.678898104413</v>
       </c>
       <c r="P36" t="n">
-        <v>1944.579818741986</v>
+        <v>1450.63994526123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R36" t="n">
         <v>2030.43425481942</v>
@@ -7049,7 +7049,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U36" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V36" t="n">
         <v>1376.470207038133</v>
@@ -7058,10 +7058,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X36" t="n">
-        <v>986.9110569133552</v>
+        <v>986.9110569133546</v>
       </c>
       <c r="Y36" t="n">
-        <v>827.5090972771852</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>602.3398494691234</v>
+        <v>934.3440370390874</v>
       </c>
       <c r="C37" t="n">
-        <v>602.3398494691234</v>
+        <v>763.2506646008039</v>
       </c>
       <c r="D37" t="n">
-        <v>602.3398494691234</v>
+        <v>763.2506646008039</v>
       </c>
       <c r="E37" t="n">
         <v>602.3398494691234</v>
@@ -7095,22 +7095,22 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J37" t="n">
-        <v>52.2904519997555</v>
+        <v>87.09729101179067</v>
       </c>
       <c r="K37" t="n">
-        <v>309.7147646564051</v>
+        <v>344.5216036684404</v>
       </c>
       <c r="L37" t="n">
-        <v>701.2525880677152</v>
+        <v>736.0594270797505</v>
       </c>
       <c r="M37" t="n">
-        <v>903.2226851976785</v>
+        <v>1164.120168670796</v>
       </c>
       <c r="N37" t="n">
-        <v>1319.557877795446</v>
+        <v>1580.455361268564</v>
       </c>
       <c r="O37" t="n">
-        <v>1704.271353674364</v>
+        <v>1965.168837147482</v>
       </c>
       <c r="P37" t="n">
         <v>2017.036691229721</v>
@@ -7119,28 +7119,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R37" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S37" t="n">
-        <v>1815.134815648408</v>
+        <v>1908.597976664053</v>
       </c>
       <c r="T37" t="n">
-        <v>1579.446133774845</v>
+        <v>1908.597976664053</v>
       </c>
       <c r="U37" t="n">
-        <v>1296.697263646285</v>
+        <v>1625.849106535493</v>
       </c>
       <c r="V37" t="n">
-        <v>1022.811518585807</v>
+        <v>1625.849106535493</v>
       </c>
       <c r="W37" t="n">
-        <v>743.741854094681</v>
+        <v>1346.779442044367</v>
       </c>
       <c r="X37" t="n">
-        <v>602.3398494691234</v>
+        <v>1346.779442044367</v>
       </c>
       <c r="Y37" t="n">
-        <v>602.3398494691234</v>
+        <v>1122.043743433132</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>365.5198709054848</v>
+        <v>1281.523759948512</v>
       </c>
       <c r="C38" t="n">
-        <v>365.5198709054848</v>
+        <v>1281.523759948512</v>
       </c>
       <c r="D38" t="n">
-        <v>40.60868509638841</v>
+        <v>877.0598300415728</v>
       </c>
       <c r="E38" t="n">
-        <v>40.60868509638841</v>
+        <v>877.0598300415728</v>
       </c>
       <c r="F38" t="n">
-        <v>40.60868509638841</v>
+        <v>456.0294179952604</v>
       </c>
       <c r="G38" t="n">
-        <v>40.60868509638841</v>
+        <v>49.3151485241136</v>
       </c>
       <c r="H38" t="n">
-        <v>40.60868509638841</v>
+        <v>49.3151485241136</v>
       </c>
       <c r="I38" t="n">
         <v>40.60868509638841</v>
@@ -7180,7 +7180,7 @@
         <v>625.1764886978945</v>
       </c>
       <c r="L38" t="n">
-        <v>842.1478096575598</v>
+        <v>842.1478096575599</v>
       </c>
       <c r="M38" t="n">
         <v>1096.396332287918</v>
@@ -7192,34 +7192,34 @@
         <v>1596.955542562628</v>
       </c>
       <c r="P38" t="n">
-        <v>1788.09710043133</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q38" t="n">
-        <v>1912.126487733578</v>
+        <v>1992.87803497895</v>
       </c>
       <c r="R38" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S38" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T38" t="n">
-        <v>1817.044119835461</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="U38" t="n">
-        <v>1560.144749265853</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="V38" t="n">
-        <v>1560.144749265853</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="W38" t="n">
-        <v>1176.384448401022</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="X38" t="n">
-        <v>775.7410505699743</v>
+        <v>1682.460433000422</v>
       </c>
       <c r="Y38" t="n">
-        <v>775.7410505699743</v>
+        <v>1281.523759948512</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>687.206064641598</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C39" t="n">
-        <v>553.2109933905438</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D39" t="n">
-        <v>436.3138356099362</v>
+        <v>436.3138356099359</v>
       </c>
       <c r="E39" t="n">
-        <v>315.8210196022642</v>
+        <v>315.821019602264</v>
       </c>
       <c r="F39" t="n">
-        <v>206.8611397847688</v>
+        <v>206.8611397847685</v>
       </c>
       <c r="G39" t="n">
         <v>100.9486199300691</v>
@@ -7250,31 +7250,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I39" t="n">
-        <v>56.63600629456042</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J39" t="n">
         <v>349.2317580283647</v>
       </c>
       <c r="K39" t="n">
-        <v>502.1623960378347</v>
+        <v>464.5090923956753</v>
       </c>
       <c r="L39" t="n">
-        <v>675.9276273691758</v>
+        <v>638.2743237270164</v>
       </c>
       <c r="M39" t="n">
-        <v>886.5429879661486</v>
+        <v>848.8896843239893</v>
       </c>
       <c r="N39" t="n">
-        <v>1108.568211643436</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O39" t="n">
-        <v>1302.678898104413</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P39" t="n">
-        <v>1450.63994526123</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q39" t="n">
-        <v>1935.300869346252</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R39" t="n">
         <v>2030.43425481942</v>
@@ -7295,10 +7295,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X39" t="n">
-        <v>986.9110569133546</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.5090972771847</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>934.3440370390874</v>
+        <v>308.2620261200969</v>
       </c>
       <c r="C40" t="n">
-        <v>763.2506646008039</v>
+        <v>137.1686536818135</v>
       </c>
       <c r="D40" t="n">
-        <v>763.2506646008039</v>
+        <v>137.1686536818135</v>
       </c>
       <c r="E40" t="n">
-        <v>602.3398494691234</v>
+        <v>137.1686536818135</v>
       </c>
       <c r="F40" t="n">
-        <v>437.7087235797146</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G40" t="n">
-        <v>271.361750136047</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H40" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I40" t="n">
         <v>40.60868509638841</v>
@@ -7335,49 +7335,49 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K40" t="n">
-        <v>374.7161282877415</v>
+        <v>218.2476434626033</v>
       </c>
       <c r="L40" t="n">
-        <v>475.1619436066327</v>
+        <v>609.7854668739135</v>
       </c>
       <c r="M40" t="n">
-        <v>903.2226851976785</v>
+        <v>1037.846208464959</v>
       </c>
       <c r="N40" t="n">
-        <v>1319.557877795446</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O40" t="n">
-        <v>1704.271353674364</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P40" t="n">
-        <v>2017.036691229721</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q40" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R40" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S40" t="n">
-        <v>1815.134815648408</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T40" t="n">
-        <v>1579.446133774845</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="U40" t="n">
-        <v>1296.697263646285</v>
+        <v>1511.996702817297</v>
       </c>
       <c r="V40" t="n">
-        <v>1172.687899179404</v>
+        <v>1238.110957756819</v>
       </c>
       <c r="W40" t="n">
-        <v>1172.687899179404</v>
+        <v>959.0412932656932</v>
       </c>
       <c r="X40" t="n">
-        <v>934.3440370390874</v>
+        <v>720.6974311253766</v>
       </c>
       <c r="Y40" t="n">
-        <v>934.3440370390874</v>
+        <v>495.9617325141413</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>809.3705215504239</v>
+        <v>1620.213075154931</v>
       </c>
       <c r="C41" t="n">
-        <v>809.3705215504239</v>
+        <v>1210.088484468201</v>
       </c>
       <c r="D41" t="n">
-        <v>461.6390971427008</v>
+        <v>1174.968246034661</v>
       </c>
       <c r="E41" t="n">
-        <v>461.6390971427008</v>
+        <v>760.6280305515575</v>
       </c>
       <c r="F41" t="n">
-        <v>40.60868509638841</v>
+        <v>339.5976185052451</v>
       </c>
       <c r="G41" t="n">
-        <v>40.60868509638841</v>
+        <v>339.5976185052451</v>
       </c>
       <c r="H41" t="n">
-        <v>40.60868509638841</v>
+        <v>49.3151485241136</v>
       </c>
       <c r="I41" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J41" t="n">
-        <v>135.5536585935969</v>
+        <v>416.0853656505566</v>
       </c>
       <c r="K41" t="n">
-        <v>298.4006618101653</v>
+        <v>578.932368867125</v>
       </c>
       <c r="L41" t="n">
-        <v>515.3719827698307</v>
+        <v>795.9036898267905</v>
       </c>
       <c r="M41" t="n">
-        <v>769.6205054001883</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N41" t="n">
-        <v>1272.152983467995</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O41" t="n">
-        <v>1677.707089808</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P41" t="n">
-        <v>1868.848647676702</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q41" t="n">
-        <v>1992.87803497895</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R41" t="n">
         <v>2030.43425481942</v>
@@ -7441,22 +7441,22 @@
         <v>2030.43425481942</v>
       </c>
       <c r="T41" t="n">
-        <v>1817.044119835461</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="U41" t="n">
-        <v>1560.144749265853</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="V41" t="n">
-        <v>1210.307194602334</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="W41" t="n">
-        <v>1210.307194602334</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="X41" t="n">
-        <v>1210.307194602334</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="Y41" t="n">
-        <v>809.3705215504239</v>
+        <v>2030.43425481942</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>687.206064641598</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C42" t="n">
-        <v>553.2109933905438</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D42" t="n">
         <v>436.3138356099362</v>
@@ -7478,31 +7478,31 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F42" t="n">
-        <v>206.8611397847688</v>
+        <v>206.8611397847687</v>
       </c>
       <c r="G42" t="n">
-        <v>100.9486199300691</v>
+        <v>100.9486199300693</v>
       </c>
       <c r="H42" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="I42" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J42" t="n">
-        <v>89.53603285555944</v>
+        <v>349.2317580283647</v>
       </c>
       <c r="K42" t="n">
-        <v>204.81336722287</v>
+        <v>502.1623960378348</v>
       </c>
       <c r="L42" t="n">
-        <v>378.5785985542111</v>
+        <v>675.9276273691759</v>
       </c>
       <c r="M42" t="n">
-        <v>881.1110766220177</v>
+        <v>886.5429879661488</v>
       </c>
       <c r="N42" t="n">
-        <v>1108.568211643437</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O42" t="n">
         <v>1302.678898104414</v>
@@ -7511,7 +7511,7 @@
         <v>1450.639945261231</v>
       </c>
       <c r="Q42" t="n">
-        <v>1935.300869346253</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R42" t="n">
         <v>2030.43425481942</v>
@@ -7523,7 +7523,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U42" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V42" t="n">
         <v>1376.470207038133</v>
@@ -7532,10 +7532,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X42" t="n">
-        <v>986.9110569133546</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y42" t="n">
-        <v>827.5090972771847</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>775.8398568315835</v>
+        <v>768.2967406950881</v>
       </c>
       <c r="C43" t="n">
-        <v>604.7464843933</v>
+        <v>597.2033682568047</v>
       </c>
       <c r="D43" t="n">
-        <v>513.1620355975391</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="E43" t="n">
-        <v>513.1620355975391</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="F43" t="n">
-        <v>348.5309097081304</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="G43" t="n">
-        <v>182.1839362644627</v>
+        <v>271.361750136047</v>
       </c>
       <c r="H43" t="n">
-        <v>40.60868509638841</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="I43" t="n">
         <v>40.60868509638841</v>
@@ -7572,19 +7572,19 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K43" t="n">
-        <v>168.4359347020274</v>
+        <v>168.4359347020275</v>
       </c>
       <c r="L43" t="n">
-        <v>559.9737581133376</v>
+        <v>559.9737581133377</v>
       </c>
       <c r="M43" t="n">
-        <v>988.0344997043833</v>
+        <v>988.0344997043835</v>
       </c>
       <c r="N43" t="n">
         <v>1404.369692302151</v>
       </c>
       <c r="O43" t="n">
-        <v>1789.083168181069</v>
+        <v>1789.08316818107</v>
       </c>
       <c r="P43" t="n">
         <v>1890.762731023884</v>
@@ -7593,28 +7593,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R43" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S43" t="n">
-        <v>1985.782478330112</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T43" t="n">
-        <v>1750.093796456549</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="U43" t="n">
-        <v>1467.344926327989</v>
+        <v>1577.037722009156</v>
       </c>
       <c r="V43" t="n">
-        <v>1467.344926327989</v>
+        <v>1303.151976948678</v>
       </c>
       <c r="W43" t="n">
-        <v>1188.275261836863</v>
+        <v>1024.082312457552</v>
       </c>
       <c r="X43" t="n">
-        <v>1188.275261836863</v>
+        <v>785.7384503172357</v>
       </c>
       <c r="Y43" t="n">
-        <v>963.5395632256278</v>
+        <v>785.7384503172357</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1343.897102283061</v>
+        <v>1620.213075154931</v>
       </c>
       <c r="C44" t="n">
-        <v>1343.897102283061</v>
+        <v>1281.523759948512</v>
       </c>
       <c r="D44" t="n">
-        <v>1282.693582096951</v>
+        <v>877.0598300415728</v>
       </c>
       <c r="E44" t="n">
-        <v>868.3533666138476</v>
+        <v>877.0598300415728</v>
       </c>
       <c r="F44" t="n">
-        <v>447.3229545675351</v>
+        <v>456.0294179952604</v>
       </c>
       <c r="G44" t="n">
-        <v>40.60868509638841</v>
+        <v>49.3151485241136</v>
       </c>
       <c r="H44" t="n">
-        <v>40.60868509638841</v>
+        <v>49.3151485241136</v>
       </c>
       <c r="I44" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J44" t="n">
-        <v>135.5536585935969</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K44" t="n">
-        <v>298.4006618101653</v>
+        <v>625.1764886978945</v>
       </c>
       <c r="L44" t="n">
-        <v>515.3719827698307</v>
+        <v>842.1478096575599</v>
       </c>
       <c r="M44" t="n">
-        <v>865.7569593341855</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N44" t="n">
-        <v>1125.988081262776</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O44" t="n">
-        <v>1366.316169608896</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P44" t="n">
-        <v>1868.848647676702</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q44" t="n">
-        <v>1992.87803497895</v>
+        <v>1912.126487733579</v>
       </c>
       <c r="R44" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S44" t="n">
-        <v>1941.047538131851</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T44" t="n">
-        <v>1727.657403147892</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="U44" t="n">
-        <v>1727.657403147892</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="V44" t="n">
-        <v>1727.657403147892</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="W44" t="n">
-        <v>1343.897102283061</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="X44" t="n">
-        <v>1343.897102283061</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="Y44" t="n">
-        <v>1343.897102283061</v>
+        <v>2030.43425481942</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>687.2060646415983</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C45" t="n">
-        <v>553.210993390544</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D45" t="n">
-        <v>436.3138356099364</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E45" t="n">
-        <v>315.8210196022644</v>
+        <v>315.8210196022642</v>
       </c>
       <c r="F45" t="n">
-        <v>206.861139784769</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G45" t="n">
         <v>100.9486199300691</v>
@@ -7724,31 +7724,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I45" t="n">
-        <v>56.63600629456042</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J45" t="n">
         <v>349.2317580283647</v>
       </c>
       <c r="K45" t="n">
-        <v>599.7107614347794</v>
+        <v>502.1623960378348</v>
       </c>
       <c r="L45" t="n">
-        <v>773.4759927661205</v>
+        <v>675.9276273691759</v>
       </c>
       <c r="M45" t="n">
-        <v>984.0913533630934</v>
+        <v>886.5429879661488</v>
       </c>
       <c r="N45" t="n">
-        <v>1206.116577040381</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O45" t="n">
-        <v>1708.649055108187</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P45" t="n">
-        <v>1856.610102265005</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q45" t="n">
-        <v>1935.300869346253</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R45" t="n">
         <v>2030.43425481942</v>
@@ -7760,19 +7760,19 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U45" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V45" t="n">
-        <v>1376.470207038134</v>
+        <v>1376.470207038133</v>
       </c>
       <c r="W45" t="n">
         <v>1163.237038774462</v>
       </c>
       <c r="X45" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133546</v>
       </c>
       <c r="Y45" t="n">
-        <v>827.509097277185</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1004.660867844593</v>
+        <v>308.2620261200967</v>
       </c>
       <c r="C46" t="n">
-        <v>833.5674954063097</v>
+        <v>206.955658540056</v>
       </c>
       <c r="D46" t="n">
-        <v>674.0728507292197</v>
+        <v>206.955658540056</v>
       </c>
       <c r="E46" t="n">
-        <v>513.1620355975391</v>
+        <v>206.955658540056</v>
       </c>
       <c r="F46" t="n">
-        <v>348.5309097081304</v>
+        <v>206.955658540056</v>
       </c>
       <c r="G46" t="n">
-        <v>182.1839362644627</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H46" t="n">
         <v>40.60868509638841</v>
@@ -7809,19 +7809,19 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K46" t="n">
-        <v>168.4359347020274</v>
+        <v>168.4359347020275</v>
       </c>
       <c r="L46" t="n">
-        <v>559.9737581133376</v>
+        <v>559.9737581133377</v>
       </c>
       <c r="M46" t="n">
-        <v>988.0344997043833</v>
+        <v>988.0344997043835</v>
       </c>
       <c r="N46" t="n">
         <v>1404.369692302151</v>
       </c>
       <c r="O46" t="n">
-        <v>1789.083168181069</v>
+        <v>1789.08316818107</v>
       </c>
       <c r="P46" t="n">
         <v>1890.762731023884</v>
@@ -7830,28 +7830,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R46" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S46" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T46" t="n">
-        <v>1750.093796456549</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="U46" t="n">
-        <v>1750.093796456549</v>
+        <v>1511.996702817297</v>
       </c>
       <c r="V46" t="n">
-        <v>1476.208051396071</v>
+        <v>1238.110957756819</v>
       </c>
       <c r="W46" t="n">
-        <v>1197.138386904945</v>
+        <v>959.041293265693</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.360574238638</v>
+        <v>720.6974311253764</v>
       </c>
       <c r="Y46" t="n">
-        <v>1192.360574238638</v>
+        <v>495.9617325141411</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>283.365360663596</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>283.3653606635964</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.576245102550892</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>391.1668118186827</v>
       </c>
       <c r="L12" t="n">
-        <v>169.4279438113859</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>294.8657752230644</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>56.93769388428029</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>50.31485733391533</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
@@ -8865,7 +8865,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>50.31485733391518</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>18.51244175280081</v>
+        <v>81.56721943976953</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>264.8529189107951</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.576245102550892</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>132.2169837953396</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>284.1633410270637</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>294.8657752230642</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>283.3406610005242</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9087,10 +9087,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>50.31485733391528</v>
       </c>
       <c r="L16" t="n">
-        <v>103.9326631540212</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
         <v>348.4508580952379</v>
@@ -9102,7 +9102,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>127.5494547533709</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>81.56721943976953</v>
       </c>
       <c r="M17" t="n">
-        <v>250.7918741792412</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>160.8519380764165</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.576245102550892</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>38.03364004258574</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>300.3525543585502</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
@@ -9330,13 +9330,13 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>327.9151982777285</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>232.0637298667372</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>382.3263543086449</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>29.31745794701285</v>
+        <v>81.56721943976943</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.576245102550892</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>332.0881280166317</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>311.5371632392217</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>66.79812876307463</v>
+        <v>38.03364004258481</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9570,16 +9570,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>24.2250013397182</v>
       </c>
       <c r="P22" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.3558518739055</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>88.71014383149011</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>88.71014383148993</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.576245102550892</v>
+        <v>3.576245102550885</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>497.63772209885</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>301.643997391776</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>389.2108538302481</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>23.87021312666431</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>394.9165235207139</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>108.2324820789103</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.576245102550892</v>
+        <v>3.576245102550885</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>389.210853830248</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>54.22285337407226</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>394.9165235207138</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>108.23248207891</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>88.7101438314899</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>38.03364004258475</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>389.8115712806915</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>304.4226354067495</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>347.6843623640422</v>
+        <v>449.5875515440442</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>357.2627844594087</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>53.56145405557993</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.576245102550892</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>38.03364004258475</v>
       </c>
       <c r="L33" t="n">
-        <v>88.52814770983019</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>464.623870796318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>283.3653606635962</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>382.3263543086449</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>29.31745794701237</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.576245102550892</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>391.1668118186828</v>
+        <v>38.03364004258486</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>294.8657752230644</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>113.2491324488797</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>35.15842324447996</v>
       </c>
       <c r="K37" t="n">
         <v>208.3638319047618</v>
@@ -10752,7 +10752,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>120.0764697507101</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
         <v>335.3881832803894</v>
@@ -10761,7 +10761,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>81.56721943976945</v>
       </c>
       <c r="R38" t="n">
-        <v>81.5672194397697</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>38.03364004258532</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>38.03364004258546</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>50.314857333915</v>
       </c>
       <c r="L40" t="n">
-        <v>23.11828600263044</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>283.3653606635956</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>244.7488445850663</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>166.8949676705914</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.576245102550892</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>38.03364004258532</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>294.8657752230644</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>5.486779135486273</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>50.31485733391519</v>
+        <v>50.31485733391469</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>97.10752922625977</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>314.5362830293981</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.5672194397692</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>136.5673424637416</v>
+        <v>38.03364004258532</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>311.5371632392219</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11472,7 +11472,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>50.31485733391519</v>
+        <v>50.31485733391469</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>326.1521898650342</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>287.3796452813201</v>
+        <v>26.28132531519338</v>
       </c>
       <c r="I11" t="n">
-        <v>8.619398793447957</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U11" t="n">
         <v>254.3303768639121</v>
@@ -23320,10 +23320,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>52.90103965737005</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I13" t="n">
         <v>88.28603573286844</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>57.09624574375312</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>395.3567882093631</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23512,7 +23512,7 @@
         <v>402.6471267764352</v>
       </c>
       <c r="H14" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>8.619398793447957</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U14" t="n">
-        <v>204.6485005931758</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S16" t="n">
-        <v>168.9411860548871</v>
+        <v>35.54193005662449</v>
       </c>
       <c r="T16" t="n">
         <v>233.3317950548276</v>
       </c>
       <c r="U16" t="n">
-        <v>131.6247557697298</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>250.008674252365</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>61.466861183964</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>52.23234883418786</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>264.4677125580175</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>74.7987681859359</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H20" t="n">
         <v>287.3796452813201</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.2562336341194</v>
@@ -24037,7 +24037,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>163.2714745115595</v>
       </c>
     </row>
     <row r="21">
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>134.9560624166496</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6835037092309</v>
+        <v>102.0105087851233</v>
       </c>
       <c r="H22" t="n">
-        <v>140.1594986563936</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>2.798080985508136</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>287.3796452813201</v>
+        <v>160.2423384861017</v>
       </c>
       <c r="I23" t="n">
-        <v>8.619398793447957</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.49284952069371</v>
+        <v>88.4928495206937</v>
       </c>
       <c r="T23" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>167.1024678604014</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I25" t="n">
-        <v>88.28603573286844</v>
+        <v>76.10886261265708</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>226.5357965427426</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>77.14941848638634</v>
       </c>
       <c r="I26" t="n">
-        <v>8.619398793447957</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24508,7 +24508,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.20525872441497</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3317950548276</v>
+        <v>26.60675616700019</v>
       </c>
       <c r="U28" t="n">
-        <v>131.1967853700187</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16.15983421917963</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>212.6888604391054</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>402.6471267764352</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8.619398793447942</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>147.1245338601524</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.14182493863768</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24922,13 +24922,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>349.0980877724327</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>8.619398793447957</v>
+        <v>8.619398793447942</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U32" t="n">
-        <v>181.8187177088418</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>67.72567572235509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S34" t="n">
-        <v>26.60675616699984</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>279.9213814272745</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>74.79876818593556</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I35" t="n">
-        <v>8.619398793447957</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>88.4928495206937</v>
       </c>
       <c r="T35" t="n">
-        <v>166.3067440891108</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U35" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>48.32327068107313</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>95.97243893961138</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>78.75721665686461</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I38" t="n">
-        <v>8.619398793447957</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.49284952069371</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>140.6357297726224</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>67.39044573094385</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>148.3776167876614</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>56.16518044422429</v>
+        <v>365.6502545586653</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>402.6471267764352</v>
       </c>
       <c r="H41" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.619398793447957</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.49284952069371</v>
+        <v>88.4928495206937</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>168.5554168041779</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>67.23109392251583</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>88.28603573286844</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S43" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>70.72092272550822</v>
       </c>
       <c r="D44" t="n">
-        <v>339.8278056236214</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>287.3796452813201</v>
       </c>
       <c r="I44" t="n">
-        <v>8.619398793447957</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>88.4928495206937</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U44" t="n">
         <v>254.3303768639121</v>
@@ -25927,7 +25927,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>69.08913480966037</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I46" t="n">
-        <v>88.28603573286844</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>44.20525872441497</v>
       </c>
       <c r="S46" t="n">
         <v>168.9411860548871</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.2303889792688</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>430589.5959306278</v>
+        <v>430589.5959306277</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>430589.5959306278</v>
+        <v>430589.5959306277</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>430589.5959306277</v>
+        <v>430589.5959306278</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>430589.595930628</v>
+        <v>430589.5959306278</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>488704.6034161668</v>
+        <v>488704.6034161667</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>488704.6034161667</v>
+        <v>488704.6034161666</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488704.6034161668</v>
+        <v>488704.6034161667</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>430589.5959306278</v>
+        <v>430589.5959306279</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>430589.5959306278</v>
+        <v>430589.5959306277</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>430589.5959306278</v>
+        <v>430589.595930628</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>502207.5158555078</v>
       </c>
       <c r="C2" t="n">
-        <v>502207.5158555078</v>
+        <v>502207.5158555079</v>
       </c>
       <c r="D2" t="n">
-        <v>502207.5158555078</v>
+        <v>502207.5158555076</v>
       </c>
       <c r="E2" t="n">
         <v>311169.7836309471</v>
       </c>
       <c r="F2" t="n">
+        <v>311169.7836309472</v>
+      </c>
+      <c r="G2" t="n">
+        <v>311169.7836309473</v>
+      </c>
+      <c r="H2" t="n">
         <v>311169.7836309471</v>
-      </c>
-      <c r="G2" t="n">
-        <v>311169.7836309472</v>
-      </c>
-      <c r="H2" t="n">
-        <v>311169.7836309473</v>
       </c>
       <c r="I2" t="n">
         <v>344344.9940896676</v>
       </c>
       <c r="J2" t="n">
-        <v>344344.9940896677</v>
+        <v>344344.9940896675</v>
       </c>
       <c r="K2" t="n">
-        <v>344344.9940896675</v>
+        <v>344344.9940896676</v>
       </c>
       <c r="L2" t="n">
         <v>344344.9940896677</v>
       </c>
       <c r="M2" t="n">
-        <v>311169.7836309475</v>
+        <v>311169.7836309473</v>
       </c>
       <c r="N2" t="n">
-        <v>311169.7836309475</v>
+        <v>311169.7836309474</v>
       </c>
       <c r="O2" t="n">
+        <v>311169.7836309473</v>
+      </c>
+      <c r="P2" t="n">
         <v>311169.7836309474</v>
-      </c>
-      <c r="P2" t="n">
-        <v>311169.7836309472</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28312.85093261236</v>
+        <v>28312.85093261238</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99965.10778404606</v>
+        <v>99965.10778404589</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>350872.3040056569</v>
       </c>
       <c r="E4" t="n">
-        <v>39558.10618810514</v>
+        <v>39558.10618810513</v>
       </c>
       <c r="F4" t="n">
         <v>39558.10618810511</v>
       </c>
       <c r="G4" t="n">
-        <v>39558.10618810511</v>
+        <v>39558.10618810512</v>
       </c>
       <c r="H4" t="n">
-        <v>39558.10618810513</v>
+        <v>39558.1061881051</v>
       </c>
       <c r="I4" t="n">
-        <v>56002.07238998468</v>
+        <v>56002.0723899847</v>
       </c>
       <c r="J4" t="n">
         <v>56002.07238998471</v>
@@ -26447,19 +26447,19 @@
         <v>56002.07238998469</v>
       </c>
       <c r="L4" t="n">
-        <v>56002.07238998473</v>
+        <v>56002.0723899847</v>
       </c>
       <c r="M4" t="n">
-        <v>39558.10618810513</v>
+        <v>39558.1061881051</v>
       </c>
       <c r="N4" t="n">
-        <v>39558.10618810512</v>
+        <v>39558.10618810511</v>
       </c>
       <c r="O4" t="n">
-        <v>39558.10618810512</v>
+        <v>39558.1061881051</v>
       </c>
       <c r="P4" t="n">
-        <v>39558.10618810514</v>
+        <v>39558.1061881051</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>41674.88356206352</v>
       </c>
       <c r="F5" t="n">
-        <v>41674.88356206351</v>
+        <v>41674.88356206352</v>
       </c>
       <c r="G5" t="n">
-        <v>41674.88356206351</v>
+        <v>41674.88356206352</v>
       </c>
       <c r="H5" t="n">
-        <v>41674.88356206351</v>
+        <v>41674.88356206352</v>
       </c>
       <c r="I5" t="n">
         <v>48148.31490709769</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117707.611849851</v>
+        <v>117698.8121642215</v>
       </c>
       <c r="C6" t="n">
-        <v>117707.611849851</v>
+        <v>117698.8121642216</v>
       </c>
       <c r="D6" t="n">
-        <v>117707.611849851</v>
+        <v>117698.8121642214</v>
       </c>
       <c r="E6" t="n">
-        <v>-320092.7865740659</v>
+        <v>-320717.8370088066</v>
       </c>
       <c r="F6" t="n">
-        <v>229936.7938807785</v>
+        <v>229311.7434460377</v>
       </c>
       <c r="G6" t="n">
-        <v>229936.7938807785</v>
+        <v>229311.7434460378</v>
       </c>
       <c r="H6" t="n">
-        <v>229936.7938807787</v>
+        <v>229311.7434460376</v>
       </c>
       <c r="I6" t="n">
-        <v>211881.7558599728</v>
+        <v>211363.7222331633</v>
       </c>
       <c r="J6" t="n">
-        <v>240194.6067925853</v>
+        <v>239676.5731657755</v>
       </c>
       <c r="K6" t="n">
-        <v>240194.6067925851</v>
+        <v>239676.5731657757</v>
       </c>
       <c r="L6" t="n">
-        <v>240194.6067925853</v>
+        <v>239676.5731657759</v>
       </c>
       <c r="M6" t="n">
-        <v>129971.6860967328</v>
+        <v>129346.6356619919</v>
       </c>
       <c r="N6" t="n">
-        <v>229936.7938807788</v>
+        <v>229311.7434460379</v>
       </c>
       <c r="O6" t="n">
-        <v>229936.7938807788</v>
+        <v>229311.7434460378</v>
       </c>
       <c r="P6" t="n">
-        <v>229936.7938807786</v>
+        <v>229311.7434460379</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="F3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="G3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="H3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="I3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="J3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="K3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="L3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="M3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="N3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="O3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="P3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
     </row>
     <row r="4">
@@ -26801,22 +26801,22 @@
         <v>507.6085637048551</v>
       </c>
       <c r="F4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="G4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="H4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="I4" t="n">
-        <v>614.0794739850223</v>
+        <v>614.0794739850224</v>
       </c>
       <c r="J4" t="n">
-        <v>614.0794739850223</v>
+        <v>614.0794739850224</v>
       </c>
       <c r="K4" t="n">
-        <v>614.0794739850223</v>
+        <v>614.0794739850224</v>
       </c>
       <c r="L4" t="n">
         <v>614.0794739850224</v>
@@ -26828,10 +26828,10 @@
         <v>507.6085637048551</v>
       </c>
       <c r="O4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="P4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9762793031343</v>
+        <v>495.9762793031344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>401.1376534246884</v>
+        <v>401.1376534246878</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I11" t="n">
         <v>76.86884626264961</v>
@@ -31773,10 +31773,10 @@
         <v>350.1069139826593</v>
       </c>
       <c r="N11" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O11" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P11" t="n">
         <v>286.7216439563411</v>
@@ -31785,13 +31785,13 @@
         <v>215.3160137953622</v>
       </c>
       <c r="R11" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S11" t="n">
         <v>45.43541493314644</v>
       </c>
       <c r="T11" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U11" t="n">
         <v>0.1595099591728672</v>
@@ -31858,7 +31858,7 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P12" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1782418192304</v>
@@ -31867,7 +31867,7 @@
         <v>66.23622839448277</v>
       </c>
       <c r="S12" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T12" t="n">
         <v>4.300020761128116</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H13" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I13" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J13" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K13" t="n">
         <v>103.9110958933452</v>
@@ -31940,10 +31940,10 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R13" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S13" t="n">
         <v>15.58666438400177</v>
@@ -31992,7 +31992,7 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I14" t="n">
         <v>76.86884626264961</v>
@@ -32010,10 +32010,10 @@
         <v>350.1069139826593</v>
       </c>
       <c r="N14" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O14" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P14" t="n">
         <v>286.7216439563411</v>
@@ -32022,13 +32022,13 @@
         <v>215.3160137953622</v>
       </c>
       <c r="R14" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S14" t="n">
         <v>45.43541493314644</v>
       </c>
       <c r="T14" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U14" t="n">
         <v>0.1595099591728672</v>
@@ -32095,7 +32095,7 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P15" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1782418192304</v>
@@ -32104,7 +32104,7 @@
         <v>66.23622839448277</v>
       </c>
       <c r="S15" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T15" t="n">
         <v>4.300020761128116</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H16" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I16" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J16" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K16" t="n">
         <v>103.9110958933452</v>
@@ -32177,10 +32177,10 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R16" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S16" t="n">
         <v>15.58666438400177</v>
@@ -32229,7 +32229,7 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H17" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I17" t="n">
         <v>76.86884626264961</v>
@@ -32247,10 +32247,10 @@
         <v>350.1069139826593</v>
       </c>
       <c r="N17" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O17" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P17" t="n">
         <v>286.7216439563411</v>
@@ -32259,13 +32259,13 @@
         <v>215.3160137953622</v>
       </c>
       <c r="R17" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S17" t="n">
         <v>45.43541493314644</v>
       </c>
       <c r="T17" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U17" t="n">
         <v>0.1595099591728672</v>
@@ -32332,7 +32332,7 @@
         <v>253.8228794656333</v>
       </c>
       <c r="P18" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1782418192304</v>
@@ -32341,7 +32341,7 @@
         <v>66.23622839448277</v>
       </c>
       <c r="S18" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T18" t="n">
         <v>4.300020761128116</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.8943834544810619</v>
       </c>
       <c r="H19" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I19" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J19" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K19" t="n">
         <v>103.9110958933452</v>
@@ -32414,10 +32414,10 @@
         <v>108.1716134401458</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R19" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S19" t="n">
         <v>15.58666438400177</v>
@@ -32466,43 +32466,43 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H20" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I20" t="n">
-        <v>76.86884626264961</v>
+        <v>76.86884626264963</v>
       </c>
       <c r="J20" t="n">
         <v>169.2276049668519</v>
       </c>
       <c r="K20" t="n">
-        <v>253.6283121141953</v>
+        <v>253.6283121141954</v>
       </c>
       <c r="L20" t="n">
-        <v>314.6483485271533</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M20" t="n">
         <v>350.1069139826593</v>
       </c>
       <c r="N20" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O20" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P20" t="n">
-        <v>286.7216439563411</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q20" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R20" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S20" t="n">
-        <v>45.43541493314644</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T20" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U20" t="n">
         <v>0.1595099591728672</v>
@@ -32548,13 +32548,13 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I21" t="n">
-        <v>36.73031879744911</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J21" t="n">
         <v>100.7908021931021</v>
       </c>
       <c r="K21" t="n">
-        <v>172.2675346707877</v>
+        <v>172.2675346707878</v>
       </c>
       <c r="L21" t="n">
         <v>231.6349594990724</v>
@@ -32563,28 +32563,28 @@
         <v>270.3070722202082</v>
       </c>
       <c r="N21" t="n">
-        <v>277.4612960980808</v>
+        <v>277.4612960980809</v>
       </c>
       <c r="O21" t="n">
         <v>253.8228794656333</v>
       </c>
       <c r="P21" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R21" t="n">
-        <v>66.23622839448277</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S21" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T21" t="n">
-        <v>4.300020761128116</v>
+        <v>4.300020761128117</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0701853225428964</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.894383454481062</v>
       </c>
       <c r="H22" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I22" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J22" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K22" t="n">
         <v>103.9110958933452</v>
@@ -32648,22 +32648,22 @@
         <v>126.4170359115596</v>
       </c>
       <c r="P22" t="n">
-        <v>108.1716134401458</v>
+        <v>108.1716134401459</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R22" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S22" t="n">
-        <v>15.58666438400177</v>
+        <v>15.58666438400178</v>
       </c>
       <c r="T22" t="n">
-        <v>3.821456578237263</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04878455206260343</v>
+        <v>0.04878455206260344</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,43 +32703,43 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H23" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I23" t="n">
-        <v>76.86884626264961</v>
+        <v>76.86884626264963</v>
       </c>
       <c r="J23" t="n">
         <v>169.2276049668519</v>
       </c>
       <c r="K23" t="n">
-        <v>253.6283121141953</v>
+        <v>253.6283121141954</v>
       </c>
       <c r="L23" t="n">
-        <v>314.6483485271533</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M23" t="n">
         <v>350.1069139826593</v>
       </c>
       <c r="N23" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O23" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P23" t="n">
-        <v>286.7216439563411</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q23" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R23" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S23" t="n">
-        <v>45.43541493314644</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T23" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U23" t="n">
         <v>0.1595099591728672</v>
@@ -32785,13 +32785,13 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I24" t="n">
-        <v>36.73031879744911</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J24" t="n">
         <v>100.7908021931021</v>
       </c>
       <c r="K24" t="n">
-        <v>172.2675346707877</v>
+        <v>172.2675346707878</v>
       </c>
       <c r="L24" t="n">
         <v>231.6349594990724</v>
@@ -32800,28 +32800,28 @@
         <v>270.3070722202082</v>
       </c>
       <c r="N24" t="n">
-        <v>277.4612960980808</v>
+        <v>277.4612960980809</v>
       </c>
       <c r="O24" t="n">
         <v>253.8228794656333</v>
       </c>
       <c r="P24" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R24" t="n">
-        <v>66.23622839448277</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S24" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T24" t="n">
-        <v>4.300020761128116</v>
+        <v>4.300020761128117</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0701853225428964</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.894383454481062</v>
       </c>
       <c r="H25" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I25" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J25" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K25" t="n">
         <v>103.9110958933452</v>
@@ -32885,22 +32885,22 @@
         <v>126.4170359115596</v>
       </c>
       <c r="P25" t="n">
-        <v>108.1716134401458</v>
+        <v>108.1716134401459</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R25" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S25" t="n">
-        <v>15.58666438400177</v>
+        <v>15.58666438400178</v>
       </c>
       <c r="T25" t="n">
-        <v>3.821456578237263</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04878455206260343</v>
+        <v>0.04878455206260344</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,43 +32940,43 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H26" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I26" t="n">
-        <v>76.86884626264961</v>
+        <v>76.86884626264963</v>
       </c>
       <c r="J26" t="n">
         <v>169.2276049668519</v>
       </c>
       <c r="K26" t="n">
-        <v>253.6283121141953</v>
+        <v>253.6283121141954</v>
       </c>
       <c r="L26" t="n">
-        <v>314.6483485271533</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M26" t="n">
         <v>350.1069139826593</v>
       </c>
       <c r="N26" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O26" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P26" t="n">
-        <v>286.7216439563411</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q26" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R26" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S26" t="n">
-        <v>45.43541493314644</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T26" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U26" t="n">
         <v>0.1595099591728672</v>
@@ -33022,13 +33022,13 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I27" t="n">
-        <v>36.73031879744911</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J27" t="n">
         <v>100.7908021931021</v>
       </c>
       <c r="K27" t="n">
-        <v>172.2675346707877</v>
+        <v>172.2675346707878</v>
       </c>
       <c r="L27" t="n">
         <v>231.6349594990724</v>
@@ -33037,28 +33037,28 @@
         <v>270.3070722202082</v>
       </c>
       <c r="N27" t="n">
-        <v>277.4612960980808</v>
+        <v>277.4612960980809</v>
       </c>
       <c r="O27" t="n">
         <v>253.8228794656333</v>
       </c>
       <c r="P27" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R27" t="n">
-        <v>66.23622839448277</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S27" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T27" t="n">
-        <v>4.300020761128116</v>
+        <v>4.300020761128117</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0701853225428964</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.894383454481062</v>
       </c>
       <c r="H28" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I28" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J28" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K28" t="n">
         <v>103.9110958933452</v>
@@ -33122,22 +33122,22 @@
         <v>126.4170359115596</v>
       </c>
       <c r="P28" t="n">
-        <v>108.1716134401458</v>
+        <v>108.1716134401459</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R28" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S28" t="n">
-        <v>15.58666438400177</v>
+        <v>15.58666438400178</v>
       </c>
       <c r="T28" t="n">
-        <v>3.821456578237263</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04878455206260343</v>
+        <v>0.04878455206260344</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,43 +33177,43 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H29" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I29" t="n">
-        <v>76.86884626264961</v>
+        <v>76.86884626264963</v>
       </c>
       <c r="J29" t="n">
         <v>169.2276049668519</v>
       </c>
       <c r="K29" t="n">
-        <v>253.6283121141953</v>
+        <v>253.6283121141954</v>
       </c>
       <c r="L29" t="n">
-        <v>314.6483485271533</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M29" t="n">
         <v>350.1069139826593</v>
       </c>
       <c r="N29" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O29" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P29" t="n">
-        <v>286.7216439563411</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q29" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R29" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S29" t="n">
-        <v>45.43541493314644</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T29" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U29" t="n">
         <v>0.1595099591728672</v>
@@ -33259,13 +33259,13 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I30" t="n">
-        <v>36.73031879744911</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J30" t="n">
         <v>100.7908021931021</v>
       </c>
       <c r="K30" t="n">
-        <v>172.2675346707877</v>
+        <v>172.2675346707878</v>
       </c>
       <c r="L30" t="n">
         <v>231.6349594990724</v>
@@ -33274,28 +33274,28 @@
         <v>270.3070722202082</v>
       </c>
       <c r="N30" t="n">
-        <v>277.4612960980808</v>
+        <v>277.4612960980809</v>
       </c>
       <c r="O30" t="n">
         <v>253.8228794656333</v>
       </c>
       <c r="P30" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R30" t="n">
-        <v>66.23622839448277</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S30" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T30" t="n">
-        <v>4.300020761128116</v>
+        <v>4.300020761128117</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0701853225428964</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.894383454481062</v>
       </c>
       <c r="H31" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I31" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J31" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K31" t="n">
         <v>103.9110958933452</v>
@@ -33359,22 +33359,22 @@
         <v>126.4170359115596</v>
       </c>
       <c r="P31" t="n">
-        <v>108.1716134401458</v>
+        <v>108.1716134401459</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R31" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S31" t="n">
-        <v>15.58666438400177</v>
+        <v>15.58666438400178</v>
       </c>
       <c r="T31" t="n">
-        <v>3.821456578237263</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04878455206260343</v>
+        <v>0.04878455206260344</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,43 +33414,43 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H32" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I32" t="n">
-        <v>76.86884626264961</v>
+        <v>76.86884626264963</v>
       </c>
       <c r="J32" t="n">
         <v>169.2276049668519</v>
       </c>
       <c r="K32" t="n">
-        <v>253.6283121141953</v>
+        <v>253.6283121141954</v>
       </c>
       <c r="L32" t="n">
-        <v>314.6483485271533</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M32" t="n">
         <v>350.1069139826593</v>
       </c>
       <c r="N32" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O32" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P32" t="n">
-        <v>286.7216439563411</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q32" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R32" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S32" t="n">
-        <v>45.43541493314644</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T32" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U32" t="n">
         <v>0.1595099591728672</v>
@@ -33496,13 +33496,13 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I33" t="n">
-        <v>36.73031879744911</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J33" t="n">
         <v>100.7908021931021</v>
       </c>
       <c r="K33" t="n">
-        <v>172.2675346707877</v>
+        <v>172.2675346707878</v>
       </c>
       <c r="L33" t="n">
         <v>231.6349594990724</v>
@@ -33511,28 +33511,28 @@
         <v>270.3070722202082</v>
       </c>
       <c r="N33" t="n">
-        <v>277.4612960980808</v>
+        <v>277.4612960980809</v>
       </c>
       <c r="O33" t="n">
         <v>253.8228794656333</v>
       </c>
       <c r="P33" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R33" t="n">
-        <v>66.23622839448277</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S33" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T33" t="n">
-        <v>4.300020761128116</v>
+        <v>4.300020761128117</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0701853225428964</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.894383454481062</v>
       </c>
       <c r="H34" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I34" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J34" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K34" t="n">
         <v>103.9110958933452</v>
@@ -33596,22 +33596,22 @@
         <v>126.4170359115596</v>
       </c>
       <c r="P34" t="n">
-        <v>108.1716134401458</v>
+        <v>108.1716134401459</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R34" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S34" t="n">
-        <v>15.58666438400177</v>
+        <v>15.58666438400178</v>
       </c>
       <c r="T34" t="n">
-        <v>3.821456578237263</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04878455206260343</v>
+        <v>0.04878455206260344</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,43 +33651,43 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H35" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I35" t="n">
-        <v>76.86884626264961</v>
+        <v>76.86884626264963</v>
       </c>
       <c r="J35" t="n">
         <v>169.2276049668519</v>
       </c>
       <c r="K35" t="n">
-        <v>253.6283121141953</v>
+        <v>253.6283121141954</v>
       </c>
       <c r="L35" t="n">
-        <v>314.6483485271533</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M35" t="n">
         <v>350.1069139826593</v>
       </c>
       <c r="N35" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O35" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P35" t="n">
-        <v>286.7216439563411</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q35" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R35" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S35" t="n">
-        <v>45.43541493314644</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T35" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U35" t="n">
         <v>0.1595099591728672</v>
@@ -33733,13 +33733,13 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I36" t="n">
-        <v>36.73031879744911</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J36" t="n">
         <v>100.7908021931021</v>
       </c>
       <c r="K36" t="n">
-        <v>172.2675346707877</v>
+        <v>172.2675346707878</v>
       </c>
       <c r="L36" t="n">
         <v>231.6349594990724</v>
@@ -33748,28 +33748,28 @@
         <v>270.3070722202082</v>
       </c>
       <c r="N36" t="n">
-        <v>277.4612960980808</v>
+        <v>277.4612960980809</v>
       </c>
       <c r="O36" t="n">
         <v>253.8228794656333</v>
       </c>
       <c r="P36" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R36" t="n">
-        <v>66.23622839448277</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S36" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T36" t="n">
-        <v>4.300020761128116</v>
+        <v>4.300020761128117</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0701853225428964</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.894383454481062</v>
       </c>
       <c r="H37" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I37" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J37" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K37" t="n">
         <v>103.9110958933452</v>
@@ -33833,22 +33833,22 @@
         <v>126.4170359115596</v>
       </c>
       <c r="P37" t="n">
-        <v>108.1716134401458</v>
+        <v>108.1716134401459</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R37" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S37" t="n">
-        <v>15.58666438400177</v>
+        <v>15.58666438400178</v>
       </c>
       <c r="T37" t="n">
-        <v>3.821456578237263</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04878455206260343</v>
+        <v>0.04878455206260344</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,43 +33888,43 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H38" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I38" t="n">
-        <v>76.86884626264961</v>
+        <v>76.86884626264963</v>
       </c>
       <c r="J38" t="n">
         <v>169.2276049668519</v>
       </c>
       <c r="K38" t="n">
-        <v>253.6283121141953</v>
+        <v>253.6283121141954</v>
       </c>
       <c r="L38" t="n">
-        <v>314.6483485271533</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M38" t="n">
         <v>350.1069139826593</v>
       </c>
       <c r="N38" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O38" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P38" t="n">
-        <v>286.7216439563411</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q38" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R38" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S38" t="n">
-        <v>45.43541493314644</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T38" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U38" t="n">
         <v>0.1595099591728672</v>
@@ -33970,13 +33970,13 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I39" t="n">
-        <v>36.73031879744911</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J39" t="n">
         <v>100.7908021931021</v>
       </c>
       <c r="K39" t="n">
-        <v>172.2675346707877</v>
+        <v>172.2675346707878</v>
       </c>
       <c r="L39" t="n">
         <v>231.6349594990724</v>
@@ -33985,28 +33985,28 @@
         <v>270.3070722202082</v>
       </c>
       <c r="N39" t="n">
-        <v>277.4612960980808</v>
+        <v>277.4612960980809</v>
       </c>
       <c r="O39" t="n">
         <v>253.8228794656333</v>
       </c>
       <c r="P39" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R39" t="n">
-        <v>66.23622839448277</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S39" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T39" t="n">
-        <v>4.300020761128116</v>
+        <v>4.300020761128117</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0701853225428964</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.894383454481062</v>
       </c>
       <c r="H40" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I40" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J40" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K40" t="n">
         <v>103.9110958933452</v>
@@ -34070,22 +34070,22 @@
         <v>126.4170359115596</v>
       </c>
       <c r="P40" t="n">
-        <v>108.1716134401458</v>
+        <v>108.1716134401459</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R40" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S40" t="n">
-        <v>15.58666438400177</v>
+        <v>15.58666438400178</v>
       </c>
       <c r="T40" t="n">
-        <v>3.821456578237263</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04878455206260343</v>
+        <v>0.04878455206260344</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,43 +34125,43 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H41" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I41" t="n">
-        <v>76.86884626264961</v>
+        <v>76.86884626264963</v>
       </c>
       <c r="J41" t="n">
         <v>169.2276049668519</v>
       </c>
       <c r="K41" t="n">
-        <v>253.6283121141953</v>
+        <v>253.6283121141954</v>
       </c>
       <c r="L41" t="n">
-        <v>314.6483485271533</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M41" t="n">
         <v>350.1069139826593</v>
       </c>
       <c r="N41" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O41" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P41" t="n">
-        <v>286.7216439563411</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q41" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R41" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S41" t="n">
-        <v>45.43541493314644</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T41" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U41" t="n">
         <v>0.1595099591728672</v>
@@ -34207,13 +34207,13 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I42" t="n">
-        <v>36.73031879744911</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J42" t="n">
         <v>100.7908021931021</v>
       </c>
       <c r="K42" t="n">
-        <v>172.2675346707877</v>
+        <v>172.2675346707878</v>
       </c>
       <c r="L42" t="n">
         <v>231.6349594990724</v>
@@ -34222,28 +34222,28 @@
         <v>270.3070722202082</v>
       </c>
       <c r="N42" t="n">
-        <v>277.4612960980808</v>
+        <v>277.4612960980809</v>
       </c>
       <c r="O42" t="n">
         <v>253.8228794656333</v>
       </c>
       <c r="P42" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R42" t="n">
-        <v>66.23622839448277</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S42" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T42" t="n">
-        <v>4.300020761128116</v>
+        <v>4.300020761128117</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0701853225428964</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.894383454481062</v>
       </c>
       <c r="H43" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I43" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J43" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K43" t="n">
         <v>103.9110958933452</v>
@@ -34307,22 +34307,22 @@
         <v>126.4170359115596</v>
       </c>
       <c r="P43" t="n">
-        <v>108.1716134401458</v>
+        <v>108.1716134401459</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R43" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S43" t="n">
-        <v>15.58666438400177</v>
+        <v>15.58666438400178</v>
       </c>
       <c r="T43" t="n">
-        <v>3.821456578237263</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04878455206260343</v>
+        <v>0.04878455206260344</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,43 +34362,43 @@
         <v>1.99387448966084</v>
       </c>
       <c r="H44" t="n">
-        <v>20.41976711723908</v>
+        <v>20.41976711723909</v>
       </c>
       <c r="I44" t="n">
-        <v>76.86884626264961</v>
+        <v>76.86884626264963</v>
       </c>
       <c r="J44" t="n">
         <v>169.2276049668519</v>
       </c>
       <c r="K44" t="n">
-        <v>253.6283121141953</v>
+        <v>253.6283121141954</v>
       </c>
       <c r="L44" t="n">
-        <v>314.6483485271533</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M44" t="n">
         <v>350.1069139826593</v>
       </c>
       <c r="N44" t="n">
-        <v>355.7720098764081</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O44" t="n">
-        <v>335.9454204198431</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P44" t="n">
-        <v>286.7216439563411</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q44" t="n">
         <v>215.3160137953622</v>
       </c>
       <c r="R44" t="n">
-        <v>125.2477184111578</v>
+        <v>125.2477184111579</v>
       </c>
       <c r="S44" t="n">
-        <v>45.43541493314644</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T44" t="n">
-        <v>8.728185578490331</v>
+        <v>8.728185578490333</v>
       </c>
       <c r="U44" t="n">
         <v>0.1595099591728672</v>
@@ -34444,13 +34444,13 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I45" t="n">
-        <v>36.73031879744911</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J45" t="n">
         <v>100.7908021931021</v>
       </c>
       <c r="K45" t="n">
-        <v>172.2675346707877</v>
+        <v>172.2675346707878</v>
       </c>
       <c r="L45" t="n">
         <v>231.6349594990724</v>
@@ -34459,28 +34459,28 @@
         <v>270.3070722202082</v>
       </c>
       <c r="N45" t="n">
-        <v>277.4612960980808</v>
+        <v>277.4612960980809</v>
       </c>
       <c r="O45" t="n">
         <v>253.8228794656333</v>
       </c>
       <c r="P45" t="n">
-        <v>203.7152381915081</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q45" t="n">
         <v>136.1782418192304</v>
       </c>
       <c r="R45" t="n">
-        <v>66.23622839448277</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S45" t="n">
-        <v>19.81565606461106</v>
+        <v>19.81565606461107</v>
       </c>
       <c r="T45" t="n">
-        <v>4.300020761128116</v>
+        <v>4.300020761128117</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0701853225428964</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8943834544810618</v>
+        <v>0.894383454481062</v>
       </c>
       <c r="H46" t="n">
-        <v>7.951881986204356</v>
+        <v>7.951881986204357</v>
       </c>
       <c r="I46" t="n">
         <v>26.89654970384867</v>
       </c>
       <c r="J46" t="n">
-        <v>63.23291023181107</v>
+        <v>63.23291023181108</v>
       </c>
       <c r="K46" t="n">
         <v>103.9110958933452</v>
@@ -34544,22 +34544,22 @@
         <v>126.4170359115596</v>
       </c>
       <c r="P46" t="n">
-        <v>108.1716134401458</v>
+        <v>108.1716134401459</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.89241817477328</v>
+        <v>74.8924181747733</v>
       </c>
       <c r="R46" t="n">
-        <v>40.21473241693937</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S46" t="n">
-        <v>15.58666438400177</v>
+        <v>15.58666438400178</v>
       </c>
       <c r="T46" t="n">
-        <v>3.821456578237263</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04878455206260343</v>
+        <v>0.04878455206260344</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.90401363354394</v>
+        <v>379.2693742971399</v>
       </c>
       <c r="K11" t="n">
         <v>164.4919224409782</v>
@@ -35424,13 +35424,13 @@
         <v>262.8597191197888</v>
       </c>
       <c r="O11" t="n">
-        <v>242.75564479406</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P11" t="n">
-        <v>476.4376413390534</v>
+        <v>193.0722806754569</v>
       </c>
       <c r="Q11" t="n">
-        <v>125.2822093962101</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R11" t="n">
         <v>166.2140271884961</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.18921333148688</v>
       </c>
       <c r="J12" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K12" t="n">
-        <v>116.4417518861723</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="L12" t="n">
-        <v>344.9483794996092</v>
+        <v>175.5204356882233</v>
       </c>
       <c r="M12" t="n">
-        <v>507.6085637048551</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N12" t="n">
         <v>224.2679027043308</v>
@@ -35506,10 +35506,10 @@
         <v>196.0714004656333</v>
       </c>
       <c r="P12" t="n">
-        <v>149.4556031887044</v>
+        <v>206.3932970729847</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.48562331439169</v>
+        <v>79.48562331439172</v>
       </c>
       <c r="R12" t="n">
         <v>96.0943287607756</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>77.4577076108116</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K13" t="n">
-        <v>101.9755836681937</v>
+        <v>51.66072633427835</v>
       </c>
       <c r="L13" t="n">
         <v>395.4927509205153</v>
@@ -35585,7 +35585,7 @@
         <v>388.5994705847658</v>
       </c>
       <c r="P13" t="n">
-        <v>52.39177180024105</v>
+        <v>102.7066291341562</v>
       </c>
       <c r="Q13" t="n">
         <v>141.0823472682186</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.90401363354394</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K14" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L14" t="n">
-        <v>237.6753922171093</v>
+        <v>300.730169904078</v>
       </c>
       <c r="M14" t="n">
         <v>256.8166895256138</v>
@@ -35661,16 +35661,16 @@
         <v>262.8597191197888</v>
       </c>
       <c r="O14" t="n">
-        <v>507.608563704855</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P14" t="n">
         <v>193.0722806754569</v>
       </c>
       <c r="Q14" t="n">
-        <v>125.2822093962101</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R14" t="n">
-        <v>166.2140271884961</v>
+        <v>37.93557559643435</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>16.18921333148688</v>
       </c>
       <c r="J15" t="n">
-        <v>181.6385471884416</v>
+        <v>49.42156339310205</v>
       </c>
       <c r="K15" t="n">
-        <v>116.4417518861723</v>
+        <v>400.605092913236</v>
       </c>
       <c r="L15" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M15" t="n">
-        <v>507.608563704855</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N15" t="n">
-        <v>507.608563704855</v>
+        <v>224.2679027043308</v>
       </c>
       <c r="O15" t="n">
         <v>196.0714004656333</v>
@@ -35746,7 +35746,7 @@
         <v>149.4556031887044</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.48562331439169</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R15" t="n">
         <v>96.0943287607756</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>77.4577076108116</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K16" t="n">
-        <v>51.66072633427834</v>
+        <v>101.9755836681936</v>
       </c>
       <c r="L16" t="n">
-        <v>182.2747966654223</v>
+        <v>395.4927509205153</v>
       </c>
       <c r="M16" t="n">
         <v>432.3845874657028</v>
@@ -35822,7 +35822,7 @@
         <v>388.5994705847658</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9245833892492</v>
+        <v>52.39177180024107</v>
       </c>
       <c r="Q16" t="n">
         <v>141.0823472682186</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>95.90401363354394</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K17" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L17" t="n">
-        <v>219.1629504643085</v>
+        <v>300.730169904078</v>
       </c>
       <c r="M17" t="n">
-        <v>507.608563704855</v>
+        <v>256.8166895256138</v>
       </c>
       <c r="N17" t="n">
-        <v>423.7116571962053</v>
+        <v>262.8597191197888</v>
       </c>
       <c r="O17" t="n">
-        <v>242.75564479406</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P17" t="n">
         <v>193.0722806754569</v>
       </c>
       <c r="Q17" t="n">
-        <v>125.2822093962101</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R17" t="n">
-        <v>37.93557559643433</v>
+        <v>37.93557559643435</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>16.18921333148688</v>
       </c>
       <c r="J18" t="n">
-        <v>49.42156339310205</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K18" t="n">
-        <v>116.4417518861723</v>
+        <v>154.4753919287581</v>
       </c>
       <c r="L18" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M18" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N18" t="n">
         <v>224.2679027043308</v>
@@ -35980,7 +35980,7 @@
         <v>196.0714004656333</v>
       </c>
       <c r="P18" t="n">
-        <v>449.8081575472546</v>
+        <v>149.4556031887044</v>
       </c>
       <c r="Q18" t="n">
         <v>489.5564889747692</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.79976454885565</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K19" t="n">
         <v>260.0245582390401</v>
@@ -36050,16 +36050,16 @@
         <v>395.4927509205153</v>
       </c>
       <c r="M19" t="n">
-        <v>83.93372937046493</v>
+        <v>432.3845874657028</v>
       </c>
       <c r="N19" t="n">
-        <v>413.0676135809429</v>
+        <v>85.15241530321443</v>
       </c>
       <c r="O19" t="n">
-        <v>388.5994705847658</v>
+        <v>302.4058677053005</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9245833892492</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q19" t="n">
         <v>141.0823472682186</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.90401363354394</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K20" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L20" t="n">
-        <v>219.1629504643085</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M20" t="n">
-        <v>256.8166895256138</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N20" t="n">
-        <v>262.8597191197888</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O20" t="n">
-        <v>242.75564479406</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P20" t="n">
-        <v>193.0722806754569</v>
+        <v>193.072280675457</v>
       </c>
       <c r="Q20" t="n">
-        <v>507.608563704855</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R20" t="n">
-        <v>67.25303354344719</v>
+        <v>119.5027950362038</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J21" t="n">
-        <v>49.42156339310205</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K21" t="n">
-        <v>116.4417518861723</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L21" t="n">
-        <v>507.608563704855</v>
+        <v>175.5204356882233</v>
       </c>
       <c r="M21" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N21" t="n">
-        <v>224.2679027043308</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O21" t="n">
-        <v>507.608563704855</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P21" t="n">
-        <v>216.253731951779</v>
+        <v>187.4892432312893</v>
       </c>
       <c r="Q21" t="n">
-        <v>79.48562331439169</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R21" t="n">
         <v>96.0943287607756</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.4577076108116</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K22" t="n">
         <v>260.0245582390401</v>
@@ -36287,19 +36287,19 @@
         <v>395.4927509205153</v>
       </c>
       <c r="M22" t="n">
-        <v>432.3845874657028</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N22" t="n">
-        <v>85.15241530321443</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O22" t="n">
-        <v>388.5994705847658</v>
+        <v>94.56713917828148</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9245833892492</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.88874438875322</v>
+        <v>13.53289251484773</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>164.4919224409782</v>
       </c>
       <c r="L23" t="n">
-        <v>219.1629504643085</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M23" t="n">
-        <v>256.8166895256138</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N23" t="n">
-        <v>262.8597191197888</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O23" t="n">
-        <v>242.75564479406</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P23" t="n">
-        <v>193.0722806754569</v>
+        <v>281.7824245069471</v>
       </c>
       <c r="Q23" t="n">
         <v>539.721071164344</v>
       </c>
       <c r="R23" t="n">
-        <v>126.6457194279243</v>
+        <v>37.93557559643436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>49.42156339310205</v>
+        <v>49.42156339310207</v>
       </c>
       <c r="K24" t="n">
-        <v>614.0794739850223</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L24" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M24" t="n">
-        <v>514.3867858735667</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N24" t="n">
-        <v>224.2679027043308</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O24" t="n">
-        <v>196.0714004656333</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P24" t="n">
-        <v>149.4556031887044</v>
+        <v>538.6664570189525</v>
       </c>
       <c r="Q24" t="n">
-        <v>79.48562331439169</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R24" t="n">
-        <v>7.236029289077358</v>
+        <v>7.236029289077372</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>77.45770761081077</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K25" t="n">
         <v>260.0245582390401</v>
@@ -36524,16 +36524,16 @@
         <v>395.4927509205153</v>
       </c>
       <c r="M25" t="n">
-        <v>432.3845874657028</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N25" t="n">
-        <v>420.5405985836038</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O25" t="n">
         <v>388.5994705847658</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9245833892492</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q25" t="n">
         <v>141.0823472682186</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>95.90401363354394</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K26" t="n">
-        <v>188.3621355676425</v>
+        <v>164.4919224409782</v>
       </c>
       <c r="L26" t="n">
-        <v>614.0794739850223</v>
+        <v>614.0794739850224</v>
       </c>
       <c r="M26" t="n">
-        <v>256.8166895256138</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N26" t="n">
-        <v>262.8597191197888</v>
+        <v>371.0922011986992</v>
       </c>
       <c r="O26" t="n">
-        <v>242.75564479406</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P26" t="n">
-        <v>193.0722806754569</v>
+        <v>193.072280675457</v>
       </c>
       <c r="Q26" t="n">
-        <v>539.721071164344</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R26" t="n">
-        <v>37.93557559643433</v>
+        <v>37.93557559643436</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>295.5512643775801</v>
+        <v>49.42156339310207</v>
       </c>
       <c r="K27" t="n">
-        <v>116.4417518861723</v>
+        <v>505.6526057164203</v>
       </c>
       <c r="L27" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M27" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N27" t="n">
-        <v>224.2679027043308</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O27" t="n">
-        <v>250.2942538397056</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P27" t="n">
-        <v>149.4556031887044</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q27" t="n">
         <v>489.5564889747692</v>
       </c>
       <c r="R27" t="n">
-        <v>96.0943287607756</v>
+        <v>7.236029289077372</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>77.4577076108116</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K28" t="n">
         <v>260.0245582390401</v>
@@ -36761,19 +36761,19 @@
         <v>395.4927509205153</v>
       </c>
       <c r="M28" t="n">
-        <v>432.3845874657028</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N28" t="n">
-        <v>420.5405985836038</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O28" t="n">
         <v>388.5994705847658</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9245833892492</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q28" t="n">
-        <v>141.0823472682186</v>
+        <v>141.0823472682181</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>164.4919224409782</v>
       </c>
       <c r="L29" t="n">
-        <v>614.0794739850223</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M29" t="n">
-        <v>256.8166895256138</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N29" t="n">
-        <v>262.8597191197888</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O29" t="n">
-        <v>350.98812687297</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P29" t="n">
-        <v>193.0722806754569</v>
+        <v>193.072280675457</v>
       </c>
       <c r="Q29" t="n">
-        <v>125.2822093962101</v>
+        <v>539.721071164344</v>
       </c>
       <c r="R29" t="n">
-        <v>37.93557559643433</v>
+        <v>126.6457194279243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.18921333148688</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J30" t="n">
-        <v>49.42156339310205</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K30" t="n">
-        <v>116.4417518861723</v>
+        <v>154.4753919287571</v>
       </c>
       <c r="L30" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M30" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N30" t="n">
-        <v>614.0794739850223</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O30" t="n">
-        <v>196.0714004656333</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P30" t="n">
-        <v>453.8782385954539</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q30" t="n">
-        <v>79.48562331439169</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R30" t="n">
         <v>96.0943287607756</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.4577076108116</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K31" t="n">
         <v>260.0245582390401</v>
@@ -36998,16 +36998,16 @@
         <v>395.4927509205153</v>
       </c>
       <c r="M31" t="n">
-        <v>432.3845874657028</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N31" t="n">
-        <v>420.5405985836038</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O31" t="n">
         <v>388.5994705847658</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9245833892492</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q31" t="n">
         <v>141.0823472682186</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>95.90401363354394</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K32" t="n">
-        <v>512.1762848050204</v>
+        <v>614.0794739850224</v>
       </c>
       <c r="L32" t="n">
-        <v>219.1629504643085</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M32" t="n">
-        <v>614.0794739850224</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N32" t="n">
-        <v>262.8597191197888</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O32" t="n">
-        <v>242.75564479406</v>
+        <v>296.31709884964</v>
       </c>
       <c r="P32" t="n">
-        <v>193.0722806754569</v>
+        <v>193.072280675457</v>
       </c>
       <c r="Q32" t="n">
-        <v>125.2822093962101</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R32" t="n">
-        <v>166.2140271884961</v>
+        <v>37.93557559643436</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J33" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K33" t="n">
-        <v>116.4417518861723</v>
+        <v>154.4753919287571</v>
       </c>
       <c r="L33" t="n">
-        <v>264.0485833980535</v>
+        <v>175.5204356882233</v>
       </c>
       <c r="M33" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N33" t="n">
-        <v>224.2679027043308</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O33" t="n">
-        <v>196.0714004656333</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P33" t="n">
-        <v>614.0794739850224</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q33" t="n">
-        <v>79.48562331439169</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R33" t="n">
-        <v>7.236029289077358</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.4577076108116</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K34" t="n">
         <v>260.0245582390401</v>
@@ -37235,16 +37235,16 @@
         <v>395.4927509205153</v>
       </c>
       <c r="M34" t="n">
-        <v>432.3845874657028</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N34" t="n">
-        <v>420.5405985836038</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O34" t="n">
         <v>388.5994705847658</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9245833892492</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q34" t="n">
         <v>141.0823472682186</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.90401363354394</v>
+        <v>95.90401363354397</v>
       </c>
       <c r="K35" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L35" t="n">
-        <v>502.5283111279047</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M35" t="n">
-        <v>256.8166895256138</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N35" t="n">
-        <v>262.8597191197888</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O35" t="n">
-        <v>242.75564479406</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P35" t="n">
-        <v>193.0722806754569</v>
+        <v>193.072280675457</v>
       </c>
       <c r="Q35" t="n">
-        <v>125.2822093962101</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="R35" t="n">
-        <v>166.2140271884961</v>
+        <v>67.25303354344673</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J36" t="n">
-        <v>49.42156339310205</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K36" t="n">
-        <v>507.6085637048551</v>
+        <v>154.4753919287572</v>
       </c>
       <c r="L36" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M36" t="n">
-        <v>507.6085637048551</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N36" t="n">
-        <v>337.5170351532105</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O36" t="n">
-        <v>196.0714004656333</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P36" t="n">
-        <v>149.4556031887044</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q36" t="n">
-        <v>79.48562331439169</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R36" t="n">
-        <v>7.236029289077358</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.79976454885565</v>
+        <v>46.95818779333563</v>
       </c>
       <c r="K37" t="n">
         <v>260.0245582390401</v>
@@ -37472,19 +37472,19 @@
         <v>395.4927509205153</v>
       </c>
       <c r="M37" t="n">
-        <v>204.010199121175</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N37" t="n">
-        <v>420.5405985836038</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O37" t="n">
         <v>388.5994705847658</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9245833892492</v>
+        <v>52.39177180024108</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.53289251484772</v>
+        <v>13.53289251484773</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>164.4919224409782</v>
       </c>
       <c r="L38" t="n">
-        <v>219.1629504643085</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M38" t="n">
-        <v>256.8166895256138</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N38" t="n">
-        <v>262.8597191197888</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O38" t="n">
-        <v>242.75564479406</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P38" t="n">
-        <v>193.0722806754569</v>
+        <v>193.072280675457</v>
       </c>
       <c r="Q38" t="n">
-        <v>125.2822093962101</v>
+        <v>206.8494288359796</v>
       </c>
       <c r="R38" t="n">
-        <v>119.502795036204</v>
+        <v>37.93557559643436</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.18921333148688</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J39" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K39" t="n">
-        <v>154.4753919287576</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L39" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M39" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N39" t="n">
-        <v>224.2679027043308</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O39" t="n">
-        <v>196.0714004656333</v>
+        <v>234.1050405082188</v>
       </c>
       <c r="P39" t="n">
-        <v>149.4556031887044</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q39" t="n">
         <v>489.5564889747692</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>77.4577076108116</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K40" t="n">
-        <v>260.0245582390401</v>
+        <v>101.9755836681934</v>
       </c>
       <c r="L40" t="n">
-        <v>101.4604195140315</v>
+        <v>395.4927509205153</v>
       </c>
       <c r="M40" t="n">
-        <v>432.3845874657028</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N40" t="n">
-        <v>420.5405985836038</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O40" t="n">
         <v>388.5994705847658</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9245833892492</v>
+        <v>52.39177180024108</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.53289251484772</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.90401363354394</v>
+        <v>379.2693742971396</v>
       </c>
       <c r="K41" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L41" t="n">
-        <v>219.1629504643085</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M41" t="n">
-        <v>256.8166895256138</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N41" t="n">
-        <v>507.6085637048551</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O41" t="n">
-        <v>409.6506124646514</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P41" t="n">
-        <v>193.0722806754569</v>
+        <v>193.072280675457</v>
       </c>
       <c r="Q41" t="n">
-        <v>125.2822093962101</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R41" t="n">
-        <v>37.93557559643433</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J42" t="n">
-        <v>49.42156339310205</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K42" t="n">
-        <v>116.4417518861723</v>
+        <v>154.4753919287577</v>
       </c>
       <c r="L42" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M42" t="n">
-        <v>507.6085637048551</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N42" t="n">
-        <v>229.7546818398171</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O42" t="n">
-        <v>196.0714004656333</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P42" t="n">
-        <v>149.4556031887044</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q42" t="n">
         <v>489.5564889747692</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>77.4577076108116</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K43" t="n">
-        <v>51.66072633427834</v>
+        <v>51.66072633427835</v>
       </c>
       <c r="L43" t="n">
         <v>395.4927509205153</v>
       </c>
       <c r="M43" t="n">
-        <v>432.3845874657028</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N43" t="n">
-        <v>420.5405985836038</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O43" t="n">
         <v>388.5994705847658</v>
       </c>
       <c r="P43" t="n">
-        <v>102.7066291341562</v>
+        <v>102.7066291341558</v>
       </c>
       <c r="Q43" t="n">
         <v>141.0823472682186</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.90401363354394</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K44" t="n">
         <v>164.4919224409782</v>
       </c>
       <c r="L44" t="n">
-        <v>219.1629504643085</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M44" t="n">
-        <v>353.9242187518736</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N44" t="n">
-        <v>262.8597191197888</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O44" t="n">
-        <v>242.75564479406</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6085637048551</v>
+        <v>193.072280675457</v>
       </c>
       <c r="Q44" t="n">
-        <v>125.2822093962101</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R44" t="n">
-        <v>37.93557559643433</v>
+        <v>119.5027950362036</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.18921333148688</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J45" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K45" t="n">
-        <v>253.0090943499139</v>
+        <v>154.4753919287577</v>
       </c>
       <c r="L45" t="n">
         <v>175.5204356882233</v>
       </c>
       <c r="M45" t="n">
-        <v>212.7427884817907</v>
+        <v>212.7427884817908</v>
       </c>
       <c r="N45" t="n">
-        <v>224.2679027043308</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O45" t="n">
-        <v>507.6085637048551</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P45" t="n">
-        <v>149.4556031887044</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.48562331439169</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R45" t="n">
         <v>96.0943287607756</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>77.4577076108116</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K46" t="n">
-        <v>51.66072633427834</v>
+        <v>51.66072633427835</v>
       </c>
       <c r="L46" t="n">
         <v>395.4927509205153</v>
       </c>
       <c r="M46" t="n">
-        <v>432.3845874657028</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N46" t="n">
-        <v>420.5405985836038</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O46" t="n">
         <v>388.5994705847658</v>
       </c>
       <c r="P46" t="n">
-        <v>102.7066291341562</v>
+        <v>102.7066291341558</v>
       </c>
       <c r="Q46" t="n">
         <v>141.0823472682186</v>
